--- a/base_de_dados_excel/df_imoveis_data_base/df_imoveis_df_lancamento_05_2024.xlsx
+++ b/base_de_dados_excel/df_imoveis_data_base/df_imoveis_df_lancamento_05_2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9711 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cobertura Residencial Topázio - SQSW 500</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Residencial Topázio, Cobertura privativa duplex , no melhor projeto 03 Suítes da nova QUADRA 500 - Setor Sudoeste: Preciosidade em cada detalhe. Mais um empreendimento com a solidez, segurança e qualidade construtiva Emplavi, incorporadora líder do segmento imobiliário de alto padrão no DF , com mais de 31.000 imóveis entregues em 42 anos de história na Capital Federal. 
+ENTREGA EM 2024!!!
+Inspirado na exuberância de um dos minerais mais raros da natureza, de profunda beleza, brilho marcante e valor inestimável, nasce o Residencial Topázio, o mais novo empreendimento com a marca do alto padrão Emplavi, localizado em um dos endereços mais nobres e valorizados de Brasília, a Quadra 500, no Setor Sudoeste, ao lado do Parque das Sucupiras e do Eixo Monumental.
+Com localização privilegiada, design arrojado que combina arquitetura contemporânea, ambientes sofisticados , soluções tecnológicas inovadoras e lazer diferenciado, o Residencial Topázio é pura inspiração do início ao fim, propondo um estilo de vida mais harmonioso e equilibrado, entre a rotina intensa de uma grande cidade e a tranquilidade de se viver em um lugar cercado de verde e da segurança que você e sua família procuram, com muito charme e conforto , perfeitamente alinhados com o que há de mais belo, moderno e funcional em um projeto residencial completo, definitivo e de alto padrão,  cuidadosamente lapidado em acabamentos de primeiríssima linha, detalhes clássicos, estilo moderno, muito requinte e elegância , feito para  encantar e elevar a sua experiência de viver e morar em Brasília , à um novo patamar de felicidade e qualidade de vida.
+São coberturas duplex privativas de 03 Suítes , com 04 vagas de garagem e metragens  que variam de 275,44m² a  311,02m² , harmoniosamente distribuídas em projetos inteligentes , reversíveis e funcionais , na medida certa dos seus maiores sonhos , onde a sua qualidade de vida é valorizada em cada detalhe, conectando você e sua família à um novo estilo de vida repleta de exclusividade , conforto e momentos únicos de felicidade, prazer e aconchego familiar.   
+Belo. Precioso. Surpreendente. Seja bem-vindo ao seu novo endereço em Brasília. Seja bem-vindo ao Residencial Topázio: preciosidade em cada detalhe. 
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.
+Agende uma visita com um corretor credenciado Emplavi e conheça as obras aceleradas com unidade modelo. ENTREGA EM 2024!!!</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-residencial-topazio--sqsw-500-320525</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - SUDOESTE</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>R-5/159969</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>320525e10786</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>SQSW</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Residencial Unité - 3 Suítes</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Desfrute da Vida no Coração de Águas Claras no Residencial Unité!
+Descubra o Residencial Unité, onde seus sonhos se encontram em um único lugar. Localizado estrategicamente no coração de Águas Claras, este empreendimento é o seu convite para uma vida prática e repleta de momentos memoráveis com sua família.
+Com um nome que reflete sua essência, o Residencial Unité é a combinação perfeita de praticidade e qualidade de vida, integrando harmoniosamente trabalho e lazer. Situado na Rua 24 Sul, próximo aos principais pontos da região, como shoppings, estações de metrô, restaurantes, supermercados e centros de saúde, o Residencial Unité oferece conveniência incomparável aos seus moradores.
+Além disso, o Residencial Unité apresenta uma extensa área de lazer, projetada para proporcionar momentos inesquecíveis. Com academia, piscina adulto e infantil com deck, espaço gourmet, churrasqueiras, playground, brinquedoteca, workstation, spa com sauna e área de descanso, salão de festas e muito mais, aqui você e sua família desfrutarão de conforto e comodidade em cada instante.
+Os apartamentos do Residencial Unité trazem o verdadeiro conforto, com 3 suítes e 2 vagas de garagem*, com espaços cuidadosamente distribuídos. As plantas variam de 93 a 98m² e contam com um projeto moderno, sustentável, automatizado e seguro, garantindo uma experiência de moradia sem igual.
+Aproveite as condições especiais e descubra todos os detalhes deste empreendimento! 
+Agende sua visita em nosso STAND e DECORADO na Rua 24 Sul ou entre em contato pelo WhatsApp para mais informações.
+Localização do Stand de Vendas:
+Rua 24 Sul, Lote 21 – Águas Claras
+Horário de Funcionamento:
+09h às 18h, com corretores disponíveis para atendê-lo.
+Observação: As imagens são meramente ilustrativas. Unidades sujeitas a disponibilidade. Consulte condições promocionais.
+Características Adicionais do Empreendimento:
+Serviço de lavagem de carros
+Recepção
+Lobby
+Vagas para carros elétricos
+Vagas para PCD (Pessoas com Deficiência)
+Workstation
+Deck</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-unite--3-suites-891239</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - SUL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Memorial de Incorporação R.6 Matrícula no 140.916 registrado no Cartório do 3º Ofício de Registro de Imóveis do DF.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Unite</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Preciosidades Emplavi Quadra 500</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quanto mais raro, mais valorizado! Prepare-se para viver um novo status de exclusividade!
+Em breve, a coleção de preciosidades Emplavi, no melhor lugar da Quadra 500 do Sudoeste, estará completa!
+Uma fusão rara de beleza, nobreza, sofisticação e funcionalidade, cercada pela vista mais privilegiada da capital, em sintonia perfeita com tudo que você espera de um 4 Suítes Premium, na melhor localização do Setor Sudoeste.
+Apartamentos de alto padrão com 04 suítes e 4 vagas na garagem, com metragens que variam de 210,64m² a 317,35m², e coberturas privativas, distribuídos em espaços inteligentes, versáteis e perfeitamente integrados e planejados para enriquecer o seu dia-a-dia, com soluções que traduzem um estilo dinâmico de viver a vida em constante movimento, sem, contudo, abrir mão de momentos únicos de puro relaxamento e convívio social e familiar.
+Exclusivo. Único. Majestoso. Conceitos que traduzem o status do seu novo endereço em Brasília.
+ANTECIPE-SE, CADASTRE-SE e APROVEITE condições EXCLUSIVAS de pré-lançamento!</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-preciosidades-emplavi-quadra-500-966649</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - SUDOESTE</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>966649</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LINK NOROESTE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uma nova forma de investir chega a Brasília.
+A Faenge traz mais uma inovação para Brasília com o Link, o primeiro imóvel Housi do Noroeste, com tecnologia de moradia por assinatura que torna o seu investimento
+muito mais prático.
+LANÇAMENTO NOROESTE :  AGENDE UMA VISITA E SUPREENDA-SE 61-  3202 155 OU   61-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-link-noroeste-334299</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>334299</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Portão Eletrônico
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apartamento a venda com 04 quartos, na Asa Norte, Brasília, DF. 
+Arquitetura contemporânea, imponência e sofisticação no bairro mais valorizado de Brasília. 
+Inspirado na arquitetura urbanista da capital, o Residencial Geraldo Estrela fica localizado na SQN 113, possui vista privilegiada e é envolto por um verde exuberante em uma esquina de frente ao Eixão. O empreendimento é o ponto focal da quadra. 
+Nos apartamentos, a prioridade é a integração dos ambientes, iluminação e ventilação natural. Trata-se de unidades de 4 quartos com metragens entre 162 a 335 m², plantas flexíveis, espaços amplos, conceito living e coberturas duplex com piscina privativa, terraço contemplativo, sala de lazer e terraço gourmet. 
+ESPECIFICAÇÕES: 
+*APARTAMENTOS TIPO 
+- Apartamento 4 quartos de canto: 162m² e 163m² e até 3 vagas de garagem 
+- Apartamento 4 quartos de meio: 167m² e até 3 vagas de garagem 
+*COBERTURAS DUPLEX 
+- Apartamento duplex 4 quartos: 335m² e 3 vagas de garagem 
+Projeto de Arquitetura: Estrela Arquitetura 
+Projeto de Paisagismo: Fábio Camargo. 
+Unidades amplas e vazadas, paredes internas em alvenaria (exceto entre as suítes 1 e 2, onde a parede será em drywall 
+para permitir a reversibilidade em suíte master ampliada), proteção acústica nas alvenarias entre unidades distintas; 
+Porta de acesso social com fechadura digital e puxador; Piso em porcelanato de grande formato nas suítes, sala e cozinha e Cozinha gourmet integrada à sala; 
+Bancadas dos banheiros e lavabos em mármore ou granito, Janelas do tipo “correr” nas suítes, com painéis vazados móveis na fachada para controle de luz e privacidade; Salas com esquadrias amplas para melhor aproveitamento da luz e ventilação natural e Portas internas e de entrada em textura branca; 
+Infraestrutura para ar-condicionado nas suítes, sala e hall íntimo; Área de serviço com bancada em granito e tanque em inox; Nichos e ralos lineares nos boxes dos banheiros; 
+Detector de vazamento de gás próximo ao fogão e ao aquecedor de passagem; Ponto de água para geladeira; Infraestrutura para lava-louças; Previsão de triturador de alimentos; Aquecedor de água a gás individual por unidade. 
+Outras características: 
+- Banheiro PDC 
+- Lavabo 
+- Terraço Coletivo 
+- Ducha 
+- Bancadas de Apoio 
+- Local Térmico 
+CJ 1700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-geraldo-estrela-880384</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>880384</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2 e 3 QUARTOS PADRÃO LUXO - URBAN 306</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENTREGA ESSE ANO! 2 E 3 QUARTOS E COBERTURAS NO CORAÇÃO DO NOROESTE.
+URBAN 306  na SQNW 306 C, Noroeste, Brasilia – DF | Primeiro 2 e 3 Quartos, e Coberturas, PADRÃO LUXO do Noroeste, com a qualidade FAENGE.
+2 QTOS 64  a 68  A partir de R$ R$ 1.220.000,00
+3 QTOS 102,25 a 102,42 A partir de R$ 1.670.000,00
+COBERTURAS  DE 3 QUARTOS  219,55m² a partir de R$ 3.055.000,00
+Venha conhecer o inédito conceito de LAZER DE VIVER. Projetado para quem acredita que a vida pode e deve ser muito melhor, o Urban_306 possui área de lazer incomparável e conta com plantas inteligentes que maximizam o conforto dos moradores, além de espetacular padrão de acabamentos. Feito para você repensar sua concepção de qualidade de vida.
+Entrega em dezembro de 2023
+Fale com um de nossos corretores e agende uma visita para conhecer nossas unidades decoradas no Espaço FAENGE, Noroeste – CLNW 4/5, Projeção A.
+Telefone Fixo:</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-2-e-3-quartos-padrao-luxo--urban-306-335288</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Empreendimento registrado no 2º Ofício de Registro de Imóveis do Distrito Federal, MI R.20/131.581. – Incorporação – Lv.2.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>335288</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Illuminato - 4 Quartos/suítes</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Illuminato - Viva a Tranquilidade em um Lar Exclusivo!
+O Illuminato é um empreendimento que redefine o conceito de luxo, modernidade e conexão com a natureza. Com apenas 36 unidades de alto padrão, oferece exclusividade e sofisticação incomparáveis. Suas opções de plantas, que variam de 171 a 401m², apresentam 4 suítes, incluindo uma master com closet, sala ampla para dois ambientes, varanda gourmet generosa e acabamento Premium, uma marca registrada dos empreendimentos da Soltec.
+Lazer Completo e Memorável:
+O lazer no Illuminato é um verdadeiro diferencial, com salão de festas, playground, espaço gourmet para confraternizações marcantes, churrasqueira, piscina aquecida com deck, sauna, academia e espaços de socialização. Cada detalhe foi pensado para oferecer experiências únicas e inesquecíveis.
+Localização Estratégica no Noroeste:
+Localizado na SQNW 309 do Noroeste, entre os parques Burle Marx e Água Mineral, o Illuminato está no último bairro a ser construído na área tombada como patrimônio histórico e cultural da humanidade. Viver aqui significa estar no epicentro do que há de mais desejado.
+Diferenciais que Elevam o Padrão:
+Além do lazer e da localização privilegiada, o Illuminato apresenta diferenciais que garantem conforto e segurança. Com fachada revestida em granito, esquadrias de alumínio e vidros laminados proporcionando maior conforto térmico e acústico. Iluminação 100% em LED nas áreas comuns, câmeras de monitoramento, sensor de vazamento de gás nos apartamentos, são alguns dos detalhes que elevam o padrão do empreendimento.
+Seja parte deste exclusivo universo, agende agora sua visita ao Illuminato e transforme seu estilo de vida!
+Conheça o decorado na nossa Central de Vendas do Noroeste na CLNW 02/03, Lote J.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-illuminato--4-quartos-suites-891787</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Illuminato</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Residencial Turmalina 04 suítes SQSW 500</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Residencial Turmalina, 04 Suítes , localizado na nova QUADRA 500 , no Setor Sudoeste: Preciosidade em cada detalhe. Um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi, há 42 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo.
+ENTREGA EM 2024. ÚLTIMAS UNIDADES.
+Localizado em um dos endereços mais valorizados e cobiçados do Plano Piloto , a nova Quadra 500 do Setor Sudoeste, em frente ao Parque das Sucupiras e próximo ao Eixo Monumental, o que proporciona uma das vistas mais deslumbrantes do horizonte de Brasília,  o Residencial Turmalina é a tradução mais fiel da evolução do conceito de morar e viver em Brasília, com a qualidade de vida e o alto padrão que só um Emplavi pode oferecer , convergindo arquitetura moderna, singular, imponente e harmoniosa  , com a arte em lapidar as melhores ideias e conceitos, transformando-as em ambientes inovadores , amplos,  inteligentes  e requintados, planejados detalhadamente , para proporcionar momentos únicos de celebração, convivência, lazer diferenciado e bem-estar , por meio de experiências memoráveis, cercadas de conforto,  segurança e de toda a exclusividade que você e sua família merecem e esperam de um residencial de alto luxo no Setor Sudoeste. 
+São apartamentos de alto padrão , com 04 Suítes e 04 vagas de garagem, com metragens que vão de 238,70m² a 261,58m², harmoniosamente distribuídos em espaços versáteis , perfeitamente  integrados e orientados à trazer praticidade e funcionalidade à vida movimentada de uma cidade cosmopolita , como Brasília,  ao mesmo tempo em que promovem uma atmosfera intimista e sofisticada, perfeita  para os momentos únicos de relaxamento e convívio social e familiar. 
+Raro. Excepcional. Magnífico. Conceitos que traduzem o status do seu novo endereço em Brasília. Seja bem-vindo ao Residencial Turmalina: preciosidade em cada detalhe
+Agende uma visita com um corretor credenciado Emplavi , conheça as obras aceleradas e a unidade modelo. ENTREGA EM 2024! ÚLTIMAS UNIDADES. 
+Unidades sujeitas a disponibilidade. Imagens meramente ilustrativas.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-turmalina-04-suites-sqsw-500-320494</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - SUDOESTE</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>R-5/159967</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>320494e10788</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Despensa 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>SQSW</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>O Residencial Maestro Claudio Cohen dispõe de apartamentos pronto para morar com 4 quartos que oferecem os melhores e mais amplos espaços internos do Guará, perfeitos para o conforto de toda família. Trata-se de unidades tipo garden com varandas gourmet e coberturas lineares de 127 a 258m². 
+Além de excelentes áreas privativas, o residencial possui espaços de lazer com academia, salão de festas, piscinas adulto e infantil, churrasqueira, sala de relax com ducha, sauna, espaço gourmet, terraço, jardins, playground e muito mais. Possui arquitetura marcante, design inovador e está localizado próximo à saída do Guará e Parque Ecológico.
+Agende uma visita com um de nossos corretores e conheça o apartamento decorado no residencial.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-maestro-claudio-cohen-389271</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>GUARÁ - GUARA II</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>389271</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cobertura Parque das Oliveiras 04 Suítes</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) às Coberturas  privativas Duplex  de 04 Suítes do Parque das Oliveiras : Contemporâneo como você.  Uma nova experiência de viver Brasília em sua expressão máxima de beleza, modernidade e qualidade de vida, em um dos endereços mais valorizados da cidade, o Setor Noroeste. Mais uma realização com a marca da solidez, da segurança e da qualidade construtiva que há 41 anos acompanham as realizações da Emplavi, no cenário imobiliário da Capital , com mais de 31.000 imóveis entregues, nas melhores localizações da cidade. 
+Localizado na SQNW 302 , a poucos minutos do Parque Burle Marx e do Eixo Monumental, o Parque das Oliveiras , incorpora um estilo único de vida moderna , dinâmica e conectada, característico das grandes cidades do Mundo , harmonizado com a segurança e a tranquilidade de um bairro ecológico, conceitualmente integrado à natureza, formando um conjunto arquitetônico completo, exuberante e harmonioso, cercado de tudo que você e sua família esperam de um residencial de alto padrão no coração de Brasília.
+Com metragens que variam entre 291,17m² e 322,30m² e até 04 vagas de garagem, as coberturas privativas do Parque das Oliveiras são uma experiência à parte de pura inspiração, beleza e praticidade, tanto pela exclusividade, funcionalidade e versatilidade de seus projetos, quanto pelas soluções tecnológicas que simplificam a vida, ou mesmo, pela vista privilegiada da cidade. Uma nova perspectiva de viver o seu melhor momento.
+Venha ser feliz no Parque das Oliveiras: contemporâneo, como você.
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o showroom de acabamentos e métodos construtivos Emplavi e  as obras aceleradas .  
+Imagens  meramente ilustrativas.
+Unidades sujeitas à disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-parque-das-oliveiras-04-suites-707564</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>R.6/131519</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>11896e11896c</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL VIDA SAMAMBAIA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Se você está cansado de pagar aluguel e sonha em ter o seu próprio lar, o Vida Samambaia pode ser a solução que você procura. com três torres e um total de 363 unidades, com três opções de metragens: de 45m², com dois quartos; de 60m², com dois quartos e terraço privativo com dois quartos e garden privativo o empreendimento oferece a melhor oportunidade de sair do aluguel e ter um lugar para chamar de seu.
+Além disso, no Vida Samambaia você pode desfrutar de lazer completo e segurança 24h, garantindo tranquilidade para você e sua família. E o melhor de tudo é que o financiamento é feito pela Caixa Econômica Federal, com  possibilidade de uso do FGTS.
+Com renda familiar mínima a partir de R$ 5.000,00, essa é a chance de ter seu próprio apartamento e viver bem. Não perca essa oportunidade única de realizar o sonho da casa própria e garantir um futuro mais estável para você e sua família.
+Não espere mais para dar esse passo importante na sua vida. Agende já uma visita e conheça de perto todas as vantagens que esse empreendimento tem a oferecer. Invista no seu futuro e garanta um lar seguro e confortável para você e sua família.
+Aproveite a super condição de Lançamento, garanta os melhores preços e condições.
+Fidelize-se com seu Corretor de Imóveis.Exija o CRECI do Vendedor,e tenha a certeza de que está sendo atendido por um Profissional, Autorizado e Credenciado.
+ELAINE ANDRADE
+CRECI:23.052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-vida-samambaia-708435</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Carolina e Andrade Imóveis</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA - SAMAMBAIA NORTE</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>708435</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COBERTURA PADRÃO LUXO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LANÇAMENTO na SQNW 306 C, Noroeste, Brasilia – DF | Primeiro 2 e 3 Quartos, e Coberturas, PADRÃO LUXO do Noroeste, com a qualidade FAENGE.
+COBERTURAS 210,99 a 220,41 A partir de R$ .585.420,00
+Venha conhecer o inédito conceito de LAZER DE VIVER. Projetado para quem acredita que a vida pode e deve ser muito melhor, o Urban_306 possui área de lazer incomparável e conta com plantas inteligentes que maximizam o conforto dos moradores, além de espetacular padrão de acabamentos. Feito para você repensar sua concepção de qualidade de vida.
+Entrega em dezembro de 2023
+Fale com um de nossos corretores e agende uma visita para conhecer nossas unidades decoradas no Espaço FAENGE, Noroeste – CLNW 4/5, Projeção A.
+Telefone Fixo:</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-padrao-luxo-335310</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Em atenção às Leis Federais nº 4.591/64 e nº 8.078/90, informamos que todas as imagens apresentadas neste material publicitário são meramente ilustrativas do imóvel a ser construído. Empreendimento registrado
+no 2º Ofício de Registro de Imóveis do Distrito Federal, MI R.20/131.581. – Incorporação – Lv.2. Os móveis são de dimensões comerciais e os objetos de decoração, os acabamentos e alguns pontos de iluminação são
+meramente ilustrativos e constituem sugestão de decoração, não fazendo parte integrante da promessa de compra e venda das unidades, as quais serão entregues conforme o Memorial de Incorporação. As plantas
+humanizadas deste material publicitário são sugestões de decoração, as unidades imobiliárias serão executadas e entregues conforme projeto aprovado. Ver cláusula contratual referente a mobília, decoração, equipamentos
+e áreas comuns em geral. O pagamento da comissão de corretagem é de responsabilidade do adquirente.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>335310</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Guarita
+                                    Interfone
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2 e 3 QUARTOS PADRÃO LUXO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ENTREGA ESSE ANO! 2 E 3 QUARTOS E COBERTURAS NO CORAÇÃO DO NOROESTE.
+URBAN 306  na SQNW 306 C, Noroeste, Brasília – DF | Primeiro 2 e 3 Quartos, e Coberturas, PADRÃO LUXO do Noroeste, com a qualidade FAENGE.
+2 QTOS 64  a 68  A partir de R$ R$ 1.170.000,00
+3 QTOS 102,25 a 102,42 A partir de R$ 1.670.000,00
+COBERTURAS  DE 3 QUARTOS  219,55m² a partir de R$ 3.055.000,00
+Venha conhecer o inédito conceito de LAZER DE VIVER. Projetado para quem acredita que a vida pode e deve ser muito melhor, o Urban_306 possui área de lazer incomparável e conta com plantas inteligentes que maximizam o conforto dos moradores, além de espetacular padrão de acabamentos. Feito para você repensar sua concepção de qualidade de vida.
+Entrega em dezembro de 2023
+Fale com um de nossos corretores e agende uma visita para conhecer nossas unidades decoradas no Espaço FAENGE, Noroeste – CLNW 4/5, Projeção A.
+Telefone Fixo:</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-2-e-3-quartos-padrao-luxo-333310</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Empreendimento registrado no 2º Ofício de Registro de Imóveis do Distrito Federal, MI R.20/131.581.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>333310</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Piso em Porcelanato</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Para morar, trabalhar e se divertir no mesmo lugar.
+No Manhattan Shopping, é possível ter o seu apartamento, sua sala comercial e ainda fazer compras. 
+Apartamentos tipo loft com até 42m², com cozinha pré-montada, garagem e área de lazer completa com um incrível rooftop, piscina de borda infinita, espaço gourmet e muito mais.
+Torre comercial com salas de até 65m² e opções com terraço, além de contar com academia e coworking.
+Shopping com conceito de exclusividade que se dividirá em butiques e alimentação.
+O empreendimento conquistou antes mesmo do lançamento, o MUSE Design Awards na categoria fachada, paisagismo e iluminação.
+Agende uma visita com um de nossos corretores e conheça os apartamentos decorados.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-manhattan-shopping-comercial-626379</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>350.706</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Loja Padrão</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>626379</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Apartamentos com varandas gourmet de 2 e 3 quartos de 62m² a 140m² que traduzem a arte do bem morar, envolvidos pelas facilidades de uma das localizações mais privilegiadas da cidade. Próximo à Estação de Metrô Arniqueiras, Parque Ecológico e rodeado por comércio variado na Rua 05 Sul de Águas Claras.
+O empreendimento também conta com coberturas lineares com SPA, churrasqueira, forno de pizza e metragens de 131 a 140m². 
+O residencial está pronto para morar e possui lojas no pavimento térreo para oferecer praticidade aos moradores.
+Agende uma visita com um de nossos corretores e conheça os detalhes deste magnífico empreendimento.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial--dalmo-rebello-389865</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>655.952</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - SUL</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>389865</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ALGARVE RESIDENCIAL NOROESTE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Unidade 201:  vazado, com 123,40m² de área privativa total, sendo 116,75m² de área privativa principal  e 6,65m² de HOBBY ROOM / bicicletário privativo, com 3 suites e 2 vagas na garagem.
+O Algarve está localizado na SQNW 303 do Noroeste, uma quadra consolidada, rica em comércio para tornar a sua rotina mais prática com proximidade ao parque Burle Marx e a 5 minutos do centro de Brasília.
+Todas as unidades do Algarve contam com diferenciais de acabamento, segurança e qualidade que a Supera Engenharia têm .
+A área de lazer do Algarve foi feita para desfrutar o melhor da paisagem, na corbertura temos salão gourmet com churrasqueira, salão de jogos, coworking, piscina com sauna e spa. No pilotis temos academia, pet care e brinquedoteca. 
+Aproveite as condições de pré-lançamento que a Supera Engenharia proporcionou para você.
+VISITE UNIDADE DECORADA E UNIDADE MODELO.
+Para conhecer melhor os diferenciais do Algarve, agende uma visita ao nosso decorado. Ligue ou fale no whatsapp pelo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-algarve-residencial-noroeste-976936</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Supera Engenharia</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Cartório do 2 ofício de registro de imóveis do Distrito Federal 
+Número do Memorial de Incorporação ALGARVE: R.10/131539</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                                                    Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Platinum Mall - CLSW 105 1ª Av. Sudoeste</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo ao Platinum Mall: O Lugar ideal para o seu sucesso acontecer!!!
+Único empreendimento 100% comercial localizado na PRINCIPAL AVENIDA COMERCIAL DO SETOR SUDOESTE , na CLSW 105 -  1ª Avenida. 
+O encontro perfeito de tudo que você busca para o seu novo endereço : acesso, visibilidade , praticidade e comodidade . Características essenciais que definem a localização ideal para o sucesso do seu negócio. 
+- Localizado na CLSW 105 - 1ª Avenida - Setor Sudoeste : A quadra mais moderna do bairro , com comércio totalmente consolidado;
+- Acesso rápido ao centro de Brasília, Parque da Cidade , Setor POlicial Sul e às vias EPIG, EPIA e EPTG ;
+- Amplo estacionamento público nas duas frentes;
+- Acessibilidade ( rampas ) 
+- Mall com diversas operações já em funcionamento;
+- Salas 100% ocupadas com grande fluxo de pessoas;
+DIFERENCIAIS COM A QUALIDADE CONSTRUTIVA EMPLAVI : 
+- Lojas comerciais no térreo com subsolo, todas com acesso para a rua.
+- Tetos das lojas com infraestrutura de iluminação aparente , paredes com pintura PVA;
+- Lojas entregues com piso em concreto desempenado;
+- Banheiros das lojas com acabamento completo : piso e paredes em porcelanato Cristallo Beige 60X60cm Biancogres , forro de gesso com pintura PVA , louças DECA e metais DOCOL.
+- Cada loja possui 2 linhas de rede frigorígena por pavimento/prumada( duas no terreo e duas no subsolo ) até a cobertura.
+- Previsão para exaustão para cozinhas por pavimento ( uma no térreo e uma no subsolo ) até a cobertura. 
+- Exaustão ( Vento KIT ) nos banheiros. 
+AGENDE UMA VISITA  em nosso Stand de Vendas no Platinum Mall - LOJA 33  e aproveite condições especiais de negociação para as  últimas unidades disponíveis!!! 
+As imagens apresentadas podem ser meramente ilustrativas.
+Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-platinum-mall--clsw-105-1-av-sudoeste-141063</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Loja Padrão</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>R.16/102606</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>141063e2402</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>CLSW</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GET PARK SUL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LANÇAMENTOS DE 2 QUARTOS E LOJAS NA PRINCIPAL AVENIDA DO PARK SUL. 
+ APARTAMENTOS DE 2 QUARTOS COM 59M² A 63M² A PARTIR DE 860 MIL 
+ANTECIPE-SE AO FUTURO. CONQUISTE SEU ESPAÇO.
+Perceber as melhores oportunidades no momento  certo para sair na frente é uma das principais características das pessoas mais bem sucedidas. 
+E, no mercado imobiliário, não é diferente. Regiões em franca evolução representam uma perspectiva de elevação da qualidade combinada com o crescimento do potencial de valorização. 
+Pensando nisso, a FAENGE preparou um empreendimento completo, composto por 45 apartamentos de 2 quartos e 9 lojas. 
+Vislumbre o futuro. Conheça o Get Park Sul.
+CONQUISTE UMA VIDA COMPLETA
+A praticidade de viver em um lugar cercado pelas melhores opções do comércio. 
+O conforto de morar em um imóvel construído com a qualidade FAENGE. A rentabilidade de 
+investir em lojas localizadas em um dos bairros com maior renda per capita do Brasil.
+Tudo isso você encontra em um único lugar.
+Tudo isso você encontra no GET PARK SUL.
+A QUALIDADE QUE FAZ A DIFERENÇA
+Quem conhece sabe: investir em um imóvel FAENGE é ter a certeza de adquirir uma loja ou apartamento com projeto, construção
+e acabamento de primeira.
+Entrega em dezembro de 2023 
+Agende uma visita para conhecer o melhor da arquitetura inteligente na central de vendas  FAENGE PARK SUL  – (em frente a padaria Pão Dourado ).
+Telefone Fixo:</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-get-park-sul--458697</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - PARK SUL</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>MI 7.722 - R-6 e MI 106.130 - R-3 –</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>458697</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Guarita
+                                    Interfone
+                                    Piscina
+                                    Portão Eletrônico
+                                    Salão Gourmet 
+                                    Piso em Porcelanato 
+                                    Vista Livre</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Península Resort Residencial</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Viva em um empreendimento completo, com a melhor via de acesso de Águas Claras, passagem exclusiva para a EPTG e passarela particular para o metrô.  
+O Península Resort Residencial está estrategicamente localizado em uma área que proporciona fácil acesso a todas as comodidades que você e sua família precisam:  estações de metrô, escolas, faculdades, shoppings, centros comerciais, mercados, hospitais e restaurantes.
+Esse empreendimento foi projetado com foco no bem-estar de seus moradores com uma infinidade de serviços, tais como, brinquedotecas, quadras de esporte, rampa de skate, ateliê de artes, garage band, pet place, parque aquático, playgrounds, 39mil m² de jardins,  segurança 24h e muito mais.
+São apartamentos novos e prontos para morar com 4 quartos que vão de 128m² a 203m² com até 3 vagas na garagem.
+Agende uma visita com um de nossos corretores e conheça os detalhes deste magnífico empreendimento.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-peninsula-resort-residencial--394112</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>394112</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jardins Azaleias 04 Suítes Noroeste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bem vindo o Jardins Azaleias , 04 Suítes , no Setor Noroeste : A felicidade além do horizonte! Um empreendimento com a solidez, a segurança e a qualidade construtiva Emplavi, há 41 anos construindo histórias felizes , com mais de 31.000 imóveis entregues no prazo. 
+O Jardins Azaleias está localizado na quadra SQNW 302 do Setor Noroeste, próximo ao Parque Burle Marx , à Asa Norte e ao Eixo Monumental , com vista livre e permanente para o horizonte de Brasília. Do projeto arquitetônico pautado por excepcional beleza, à inovação, conforto , requinte e sofisticação em cada detalhe, refletidos nos ambientes que compõem suas áreas comuns e lazer diferenciado , tudo vai se encaixando e moldando uma experiência única de viver e morar em um lugar feito para elevar seu conceito de felicidade a um patamar inimaginável. 
+São apartamentos , com plantas reversíveis de 4 suítes e até 3 vagas de garagem , com  metragens que vão de 145,64m² a 164,38m² perfeitamente distribuídas em espaços generosos, integrados e funcionais , prontos à oferecer praticidade para as rotinas do dia a dia , de toda a família,  harmonizada com a leveza e o conforto dos momentos de celebração, relaxamento e convívio familiar e social, apreciando uma das mais belas vistas do horizonte de Brasília.  
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o showroom de acabamentos , os métodos construtivos Emplavi e  as obras aceleradas  com unidade modelo.
+ENTREGA EM 2023 !!! ÚLTIMAS UNIDADES!!!  
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.
+Fale com um de nossos corretores e agende uma visita à Central de Vendas e decorados Emplavi Noroeste – SQNW 102</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-jardins-azaleias-04-suites-noroeste-251805</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>R-6/131.520</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>251805e4530</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>COBERTURAS PARQUE DOS BURITIS 04 SUITES</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>O melhor 04 Suítes Premium do Setor Noroeste vai conquistar você! Seja bem-vindo ao Parque dos Buritis : a evolução do alto padrão.
+Um conjunto arquitetônico exuberante , com a marca da solidez e da qualidade construtiva Emplavi.
+Uma nova experiência, única e inspiradora, que elevará seu conceito de moradia de alto luxo , a um nível inimaginável, está chegando em um dos bairros mais valorizados de Brasília.
+Projetos reversíveis e inteligentes que vão 212,62m² a 232,86m² com até 04 vagas de garagem e coberturas privativas com até 456,80m² com 05 vagas de garagem, localizado em uma das quadras mais consolidadas do Setor Noroeste, ao lado do Parque Burle Marx.
+Agende uma visita à Central de vendas Emplavi Noroeste , encante-se com o futuro do seu novo endereço em Brasília e garanta negociações exclusivas, com condições especiais de lançamento.
+Parque dos Buritis 04 suítes Premium : a evolução do alto padrão.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-coberturas-parque-dos-buritis-04-suites-916216</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>R15/105402</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>916216</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Despensa 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Prestige Residence 02 quartos - Guará II</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Prestige Residence 02 quartos , localizado na QI 29 do Guará II : O privilégio de viver bem.  Um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi, há 42 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo. 
+ENTREGA EM 2024!!!
+Surpreendente, contemporâneo, definitivo. Um belo e harmonioso conjunto arquitetônico de 2 e 3 quartos, que se ergue em uma das principais avenidas do Guará II , ressignificando o conceito de viver e morar em uma das regiões mais cobiçadas e valorizadas do Distrito Federal, cercado de facilidades e segurança, em um condomínio de luxo,  compartilhando de modernos , amplos e sofisticados ambientes  comuns e de uma estrutura diferenciada de lazer que promovem uma experiência única de convívio , entretenimento e bem-estar  para toda a família , em uma  valiosa conexão com o esplendor de ser exclusivo. 
+São apartamentos de 02 quarto , com 1 suíte e metragens que variam de 71,78m² a 74,38m² com até 02 vagas de garagem, planejados e alinhados com o seu jeito único e exclusivo de morar , onde modernidade e funcionalidade se unem para dar vida a um projeto definitivo e conectado com seus melhores momentos de convívio e aconchego familiar e com a qualidade de vida que você sempre sonhou. 
+Conheça o Prestige Residence , conecte-se ao futuro do seu novo endereço , na melhor localização do Guará II ,  e sinta-se privilegiado. 
+Agende uma visita com um corretor credenciado Emplavi e conheça as obras aceleradas.
+ENTREGA EM 2024!!!
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-prestige-residence-02-quartos--guara-ii-342653</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>GUARÁ - GUARA II</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>R-6-51370</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>e10964</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>GUARÁ</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ALGARVE RESIDENCIAL NOROESTE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Unidade 607:  vazado, com 199,30m² de área privativa total, sendo 192,12m² de área privativa principal  e 7,18m² de HOBBY ROOM / bicicletário privativo, com 3 suites e 3 vagas na garagem.
+O Algarve está localizado na SQNW 303 do Noroeste, uma quadra consolidada, rica em comércio para tornar a sua rotina mais prática com proximidade ao parque Burle Marx e a 5 minutos do centro de Brasília.
+Todas as unidades do Algarve contam com diferenciais de acabamento, segurança e qualidade que a Supera Engenharia têm .
+A área de lazer do Algarve foi feita para desfrutar o melhor da paisagem, na corbertura coletiva temos salão gourmet com churrasqueira, salão de jogos, coworking, piscina/spa com sauna. No pilotis temos academia, pet care e brinquedoteca. 
+Aproveite as condições de pré-lançamento que a Supera Engenharia proporcionou para você.
+VISITE UNIDADE DECORADA E UNIDADE MODELO.
+Para conhecer melhor os diferenciais do Algarve, agende uma visita ao nosso decorado. Ligue ou fale no whatsapp pelo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-algarve-residencial-noroeste-976912</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Supera Engenharia</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Cartório do 2 ofício de registro de imóveis do Distrito Federal 
+Número do Memorial de Incorporação ALGARVE: R.10/131539</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                                                    Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL QUATTRE - TORRE BELGRADO</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Um novo conceito de morar em Sobradinho.
+Nasce um novo empreendimento que transcende a arquitetura em busca de equilíbrio entre inovação, conceito e lazer único na região. O Residencial conta com quatro majestosas torres: Belgrado, Istambul, Atenas e Bucareste. E abraça a essência da modernidade sem abrir mão do conforto e qualidade de vida. Conheça esse novo modo de viver, onde a sofisticação está nos detalhes e a exclusividade é a nossa assinatura.
+Com localização privilegiada em Sobradinho, situado na Quadra 02 Conjunto B8 o empreendimento conta com unidades de 2 quartos e vaga de garagem. É o primeiro com área de lazer completa na cobertura, incluindo uma incrível vista panorâmica da cidade.
+– 2 Quartos
+– 1 Suíte
+– Sala de Estar
+– Sala de Jantar
+– Cozinha Americana
+– Banheiro Social
+Térreo:
+– Brinquedoteca
+– Jardim Interno
+– Área de Convivência
+– Salão de Festas
+– Academia
+– Guarita/Portaria
+Cobertura Social:
+– Piscina Adulto
+– Piscina Infantil
+– Deck Suspenso
+– Churrasqueiras
+– Terraço Descoberto
+Agende agora mesmo sua visita!!
+Thais/Carol</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-quattre--torre-belgrado-942007</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>535.921</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Carol Aragão</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SOBRADINHO - SOBRADINHO</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>942007</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Imagine acordar todos os dias com um cenário de tirar o fôlego diante dos seus olhos. O Residencial Nívio Gonçalves conta com uma vista deslumbrante, pois está localizado em dos pontos mais altos do Noroeste.
+Com apartamentos e coberturas duplex de 2 quartos com 73m² a 170m² prontos para morar, o Residencial conta com áreas de lazer modernas e funcionais na cobertura e pilotis. Salões de festas, espaço coworking, brinquedoteca, academia, piscinas, espaços gourmet, sauna e muito mais.
+Realize o sonho de morar em um lugar privilegiado.
+Agende uma visita com um de nossos corretores e conheça os apartamentos decorados no residencial.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-nivio-goncalves-389290</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>389290</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Parque das Gardênias 04 Suítes Noroeste</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque das Gardênias 04 Suítes Noroeste: em sintonia com você. Um empreendimento com a  marca da solidez , segurança e qualidade construtiva Emplavi, há 42 anos construindo histórias felizes , com mais de 31.000 imóveis entregues no prazo. 
+PRONTO PARA MORAR!!! ÚLTIMAS UNIDADES!!!!
+Da convergência perfeita entre o seu momento de vida ideal e o lugar certo para sua felicidade acontecer nasce o novo conceito que inspira o Parque das Gardênias Noroeste, o mais novo e surpreendente 4 suítes Emplavi, no Setor Noroeste.
+Localizado na SQNW 106 e com vista livre e  permanente para o Parque Burle Marx e para o nascer do sol , o Parque das Gardênias é pura inspiração , da beleza arquitetônica que exala modernidade à sofisticação , amplitude e requinte dos ambientes comuns e do lazer diferenciado , o Parque das Gardênias vai se encaixando às mais diversas expectativas e exigências apuradas de pessoas que, assim como você, buscam sempre o melhor, quando o assunto é qualidade de vida. Tudo planejado para estar, hoje e sempre, em sintonia com você.
+São apartamentos de alto padrão com plantas reversíveis de 4 Suítes e até 4 vagas de garagem e metragens que variam de 165,41m² a 188,50m² , perfeitamente distribuídos em espaços  inovadores e multifuncionais , revestidos de sofisticação e requinte , plenamente integrados às mais diversas necessidades e expectativas de toda a família, feitos para encantar e inspirar projetos que se harmonizam com seu novo estilo de viver e morar , em uma das melhores localizações de Brasília, cercado de praticidade, segurança e o conforto de momentos de puro relaxamento e convívio social e familiar. 
+Venha viver em sintonia com seu melhor momento. Parque das Gardênias : em sintonia com você.
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça a unidade decorada,  o showroom de acabamentos , os métodos construtivos Emplavi e  AS UNIDADES PRONTAS. 
+PRONTO PARA MORAR!!! ÚLTIMAS UNIDADES.
+Unidades sujeitas à disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-das-gardenias-04-suites-noroeste-108036</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>R-3/164.343</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>108036e4480</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PALAZZO 105</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Apartamento a venda com 4 quartos no Setor Noroeste, Brasília, DF.
+4 SUÍTES PADRÃO LUXO. SAIBA MAIS: Telefone Fixo:</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-palazzo-105-333370</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Empreendimento registrado no 2º Ofício de Registro de Imóveis do Distrito Federal, R9 -M 131.486 – Lv.2.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>333370</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Singular - Seu Novo Lar de Luxo Pronto para Receber Você!
+Conheça a exclusividade que o Singular proporciona, um empreendimento que vai além do comum. Com apartamentos prontos para morar, oferecemos o que há de mais refinado em conforto e sofisticação.
+Características Únicas:
+O Singular apresenta apartamentos de 4 suítes, com metragens de 152 a 292m² e 3 a 4 vagas de garagem. Desfrute de ambientes iluminados naturalmente, com janelas de correr que bloqueiam raios UV, proporcionando conforto térmico e acústico incomparáveis. Suas paredes e lajes maciças de 23cm de espessura garantem máxima privacidade para sua família.
+Lazer Diferenciado na Cobertura:
+A cobertura social do Singular oferece um lazer exclusivo, com spa, solarium, sauna, piscina com borda infinita, academia, lavabos, espaço gourmet, terraço e churrasqueira. Cada detalhe foi cuidadosamente projetado para proporcionar uma experiência única aos moradores.
+Arquitetura Imponente:
+A fachada 100% revestida em granitos, pastilhas porcelanizadas, detalhes em alucobond amadeirado, vidros laminados e esquadrias em alumínio preto fosco transmitem a dimensão e a sofisticação do empreendimento.
+Pilotis Integrado:
+O pilotis foi concebido para resgatar a essência dos pilotis residenciais de Brasília, promovendo a integração entre os moradores. Com bancos, jardineiras e espaço para leitura, este espaço foi pensado para tornar seu dia a dia ainda mais especial.
+Localização Privilegiada:
+Localizado na SQNW 111, ao lado do Parque Burle Marx, o Singular oferece fácil acesso à Asa Norte e está cercado por um comércio rico e variado, proporcionando comodidade e praticidade.
+Conheça nossa Central de Vendas do Noroeste na CLNW 02/03, Lote J.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-singular--4-quartos-893242</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Singular</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova 
+                                                                    Mobiliado</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Venice Park</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Venice Park - Seu Resort Urbano Perfeito para Morar e Investir!
+O Venice Park é um empreendimento pronto para transformar seu conceito de moradia e investimento. Localizado no coração do Park Sul, o Venice Park oferece uma experiência única, combinando conforto, lazer e praticidade.
+É um empreendimento perfeito para morar, proporcionando uma vida tranquila e cheia de lazer. Ao mesmo tempo, é uma excelente opção para investidores que buscam rentabilidade e valorização. Seja para morar ou investir, o Venice Park oferece a combinação ideal de qualidade de vida e retorno financeiro.
+Diversidade de Apartamentos:
+O Venice Park é composto por apartamentos de 1 quarto e duplex, apresentando plantas versáteis de 26 a 102m², ideais para quem busca praticidade e modernidade. Cada unidade inclui uma vaga de garagem, garantindo conveniência no seu dia a dia.
+Lazer Incomparável:
+Desfrute de mais de 60 itens de lazer, incluindo um complexo aquático com mais de 1000m². Os serviços pay-per-use adicionam praticidade e eficiência ao seu estilo de vida, tornando o Venice Park um verdadeiro resort urbano.
+Investimento com Alta Rentabilidade:
+Além de oferecer qualidade de vida, o Venice Park é uma oportunidade excepcional para investidores. Com uma alta demanda para locações na região, a rentabilidade do empreendimento é notável, tornando-o uma escolha inteligente para quem busca retorno financeiro.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-venice-park-892096</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Escritorio 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Vista Livre
+                                    Home Theater
+                                                                                                    Pintura Nova 
+                                                                    Mobiliado</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Com localização simplesmente excepcional, o Real Le Parc é o único empreendimento de 2 quartos no Noroeste em frente ao Parque Burle Marx. E o melhor: o cenário ainda conta com uma incrível vista livre permanente para os belíssimos cartões postais de Brasília! 
+Situado na SQNW 103, próximo à principal via de acesso ao Noroeste, o novo morador desfrutará de praticidade e conforto, pois estará a poucos minutos dos principais comércios da cidade: shoppings, restaurantes, escolas, faculdades, supermercados, hospitais, dentre outros. 
+A Real Engenharia sempre busca entregar ao público o que há de melhor em qualidade que o mercado imobiliário possa exigir. Isso vai desde o alto padrão de construção, passando pelo fino acabamento e, por fim, a experiência única que o morador e sua família viverão em seu novo lar. 
+O Real Le Parc cumpre à risca tudo isso: é exatamente o mesmo padrão de construção, acabamento, infraestrutura, tecnologia e tudo mais que se vê nos melhores empreendimentos de 3 e 4 quartos! 
+Estão disponíveis unidades com 79 m² a 86 m² de área privativa e plantas com opções de reversibilidade, todas contendo: 
+- Dois quartos, sendo uma suíte com closet e banheiro com bancada em nobilestone branco, espelho e box instalados 
+- Sala de jantar 
+- Sala de TV 
+- Banheiro social com bancada em nobilestone branco, espelho e box instalados 
+- Cozinha americana com bancada em granito Preto São Gabriel 
+- Área de serviço 
+- Banheiro de serviço 
+- Laje técnica 
+- Varanda (em algumas opções de plantas) 
+- Piso em porcelanato 90 cm x 90 cm e revestimentos também na linha premium 
+- Rodapés sustentáveis e impermeáveis 
+- Tratamento acústico, térmico e lumínico 
+- Infraestrutura para automação para áudio, vídeo e persianas 
+- Lâmpadas em LED 
+- Tomadas com ponto USB na sala e nos quartos 
+- Sistema de alarme antipânico SOS (aciona alerta sonoro na guarita) 
+- Sensor de vazamento de gás 
+- Laje maciça de concreto armado com espessura mínima de 20 cm, proporcionando melhor conforto acústico entre os pavimentos 
+- Paredes duplas entre os apartamentos com bloco de concreto preenchidas com lã de rocha: ainda mais privacidade e conforto aos moradores 
+- Duas vagas de garagem 
+- Infraestrutura para instalação de tomadas para carros elétricos em uma vaga de cada unidade 
+Todas as áreas de lazer e comuns serão entregues mobiliadas e decoradas, sem taxa extra, mantendo o altíssimo padrão do empreendimento: 
+- Brinquedoteca 
+- Playground no paisagismo 
+- Espaço Teen com jogos e relax 
+- Salão de festas com varanda 
+- Academia com vista para o Parque Burle Marx 
+- Espaço Funcional (para exercícios físicos em ambiente aberto) 
+- Churrasqueira com chopeira 
+- Espaço gourmet 
+- Piscina adulto e infantil aquecidas 
+- Spa 
+- Sauna 
+Isso e muito mais, feito com o melhor e mais moderno padrão de construção, tecnologia e sustentabilidade que os novos tempos exigem. 
+Imaginou você e sua família vivendo em uma autêntica obra de arte, de frente para um parque, ao som dos pássaros, na região que mais se desenvolve e se valoriza em Brasília?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-real-le-parc-842842</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Beth Oliveira</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>842842</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                                                    Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Residencial Lagos</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Residencial Lagos 
+APTOS DE 3 QUARTOS NOVOS E PRONTO PARA MORAR!
+Localização Privilegiada:
+- Ao lado da estação do metrô terminal Samambaia
+- 250 metros da primeira avenida sul
+-Próximo ao MC DONALDS
+-Próximo a lojas americanas
+- próximo a padarias e restaurantes 
+-próximo ao BRB
+- Próximo a parada de ônibus
+Entre outros
+Área de lazer 
+-Piscina
+-churrasqueira
+-Sauna
+- Espaço para salão de festas
+-Espaço para academia
+DO Apto
+- 03 quartos sendo 1 suíte
+- banheiro social
+- sala de jantar/ estar 
+-cozinha fechada/ área de serviço
+- 01 vaga de garagem
+FORMA DE PAGAMENTO SUPER FACILITADA SINAL DE APENAS 5 MIL
+Aproveite! essa é sua chance de adquirir seu apto de 3 quartos em Samambaia Novo e pronto pra morar de forma facilitada, AGENDE SUA VISITA AGORA MESMO.
+ACEITA FINANCIAMENTO E FGTS.
+Valores e disponibilidade sujeitos a alteração sem prévio aviso! .
+MAIS INFORMAÇÕES
+Corretor André
+ Creci 19161
+Ligue ou mande WhatsApp</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-lagos---922274</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>378.298</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASD imóveis</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA - SAMAMBAIA SUL</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Lagos</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Salão de Festas
+                                    Sauna
+                                    Vista Livre
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cobertura Parque das Palmeiras 2 quartos</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) às Coberturas privativas de 2 quartos com até 2 suítes do Parque das Palmeiras no Setor Noroeste: Um convite à exclusividade. Uma convergência perfeita de atributos arquitetônicos e diferenciais construtivos que traduzem uma experiência única com a solidez, a segurança, a qualidade construtiva Emplavi, a marca que é referência no segmento alto padrão da Capital , há 41 anos construindo histórias felizes e mais de 31.000 imóveis entregues no prazo. 
+Localizado na SQNW 302, próximo ao Eixo Monumental, ao Parque Burle Marx e às principais vias de acesso ao bairro, o Parque das Palmeiras vai aos poucos encantando pela sua versatilidade, apresentando um estilo próprio de viver em uma grande cidade, com a tranquilidade, a qualidade de vida e a segurança que você e sua família merecem. Um residencial completo, de arquitetura arrojada e imponente, diferenciais construtivos e tecnológicos de última geração, ambientes amplos e planejado nos mínimos detalhes para proporcionar toda a sofisticação e requinte de um empreendimento de alto luxo, usufruindo de uma infraestrutura completa de lazer, descanso ou entretenimento, ao lado da família e dos amigos. 
+Com coberturas duplex privativas de 02 quartos e até 02 suítes, com metragens que variam entre 144,06m² e 153,72m² e até 03 vagas na garagem, o Parque das Palmeiras Noroeste é o convite certo para uma nova experiência de exclusividade com o melhor que a vida pode oferecer, em espaços que privilegiam a união de elementos nobres e contemporâneos, com projetos versáteis , inteligentes e funcionais que primam pela excelência em acabamentos diferenciados  e inovações que garantem mais conforto, praticidade, economicidade e segurança para toda a família, equilibrando a agitação de uma rotina diária intensa , com o  aconchego de momentos  únicos em família . 
+Seja bem-vindo ao Parque das Palmeiras: um convite à exclusividade.
+Fale com um de nossos corretores e agende uma visita na Central de Vendas e decorados Emplavi Noroeste – SQNW 102 , conheça a unidade decorada e as obras aceleradas. 
+As imagens apresentadas podem ser meramente ilustrativas. Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-parque-das-palmeiras-2-quartos-456790</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>R.I:R6/131-525</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>11252e11252c</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Residencial Safira 04 Suítes - SQSW 500</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Residencial Safira, 04 Suítes , localizado na mais nova Quadra residencial do Setor Sudoeste, a Quadra 500 : Preciosidade em cada detalhe. Um novo empreendimento com a assinatura da solidez, segurança e qualidade construtiva Emplavi, há 42 anos construindo histórias felizes, com mais de 31.000 imóveis entregues no prazo. 
+ENTREGA EM 2024! ÚLTIMAS UNIDADES. 
+Localizado em um dos endereços mais nobres do Plano Piloto e uma das vistas mais deslumbrantes do horizonte de Brasília, o Residencial Safira harmoniza uma arquitetura imponente de linhas arrojadas e design contemporâneo, convergindo modernidade , requinte e altíssimo padrão, com inovações tecnológicas de última geração , em um harmonioso conjunto arquitetônico completo e diferenciado, que reflete a evolução contínua dos empreendimentos Emplavi , traduzindo um estilo de vida único , dinâmico e de muita personalidade em cada detalhe, que se reflete em ambientes comuns inteligentes, versáteis e luxuosos e lazer completo e diferenciado,  promovendo uma experiência inigualável de viver cercado de conforto, tranquilidade e mais conectado com seu bem-estar. 
+São modernos apartamentos de alto padrão, com 04 suítes e 4 vagas na garagem, com metragens que variam de 175,34m² a 197,60m² , distribuídos em espaços inteligentes, versáteis e perfeitamente  integrados e planejados para enriquecer o seu dia a dia , com soluções  que traduzem um estilo dinâmico de viver a vida em constante movimento, sem contudo, abrir mão de momentos únicos de puro relaxamento e convívio social e familiar. 
+Exclusivo. Único. Majestoso. Conceitos que traduzem o status do seu novo endereço em Brasília. Seja bem-vindo ao Residencial Safira : preciosidade em cada detalhe. 
+Agende uma visita com um corretor credenciado Emplavi e conheça as obras aceleradas com unidade modelo. ENTREGA EM 2024!! ÚLTIMAS UNIDADES.
+Unidades sujeitas a disponibilidade. Imagens meramente ilustrativas.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-safira-04-suites--sqsw-500-320506</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - SUDOESTE</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>R-5/159968</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>320506e10784</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>SQSW</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>QUADRA 301! 2 QUARTOS, ELEVADOR E GARAGEM COBERTA!
+SAN 975436
+Apartamento de 50m², com 2 quartos, sala, cozinha, área de serviço, semi suites e vaga de garagem coberta.
+Empreendimento muito conceituado em Águas Claras. Localizado praticamente ao lado do parque ecológico de águas claras, a menos de 500 metros da estação do metrô Arniqueiras,, próximo ao comércio em geral, escolas, faculdades e hipermercados atacadistas. Ônibus praticamente na porta.
+(Os preços e informações poderão sofrer mudanças sem aviso prévio. Por este motivo, solicitamos a confirmação com nossos consultores.)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-fenix--954317</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Alvaro Júnior Netimóveis</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>975436</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Yard Soltec Premium</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Seu Lar dos Sonhos Agora é Realidade no Vivacité 
+Descubra a sofisticação e o conforto que o Vivacité oferece, uma obra-prima pronta para acolher você e sua família no coração do Noroeste. Apartamentos a partir de 103m² e coberturas duplex de 201 a 212m² de alto padrão, com 3 quartos, esperam por você, prontos para morar e proporcionar uma vida repleta de experiências inesquecíveis.
+Localização Privilegiada:
+Situado na SQNW 311, a primeira quadra do Noroeste, o Vivacité está estrategicamente posicionado em uma quadra consolidada, repleta de comércios e utilidades que facilitarão sua rotina diária, tornando cada momento mais prático e conveniente.
+Diferenciais Incomparáveis:
+Cada unidade do Vivacité reflete o compromisso da Soltec com a excelência em acabamentos e segurança. Afinal, sua tranquilidade é nossa prioridade.
+Lazer de Alto Padrão:
+Desfrute de um lazer completo e refinado, com espaços dedicados a todas as idades. O Vivacité oferece um espaço criança, salões de festas, churrasqueira para momentos descontraídos, piscina aquecida, sauna, academia equipada e um deck para relaxar. Tudo isso pensado para que sua qualidade de vida seja a melhor possível.
+Condições Especiais para um Investimento Inteligente:
+A Soltec apresenta condições especiais que tornarão seu sonho realidade. Essa é a oportunidade perfeita para fazer um investimento sólido em um imóvel que une luxo, conforto e localização estratégica.
+Visite nossa Central de Vendas na CLNW 02/03, Lote J.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-yard-soltec-premium-891261</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Memorial de Incorporação R.6 Matrícula nº 131.570 registrado no Cartório do 2º Ofício de Registro de Imóveis do DF.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Yard</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Parque dos Jasmins 02 quartos Noroeste</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque dos Jasmins, no Setor Noroeste: Viva seu melhor momento. O mais novo empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi , há 41 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo. 
+Estrategicamente localizado na quadra SQNW 307, uma das melhores localizações do Setor Noroeste, a poucos minutos do Parque Burle Marx e das principais vias de acesso ao bairro, o Parque dos Jasmins está perfeitamente integrado ao ritmo vibrante e dinâmico de Brasília e, ao mesmo tempo, conectado à tranquilidade, segurança e sustentabilidade urbana que só um bairro conceitualmente integrado à natureza pode proporcionar aos seus moradores, em sintonia perfeita com um belíssimo conjunto arquitetônico , contemporâneo, completo e harmonioso, cuidadosamente orientado a agregar aos seus melhores momentos experiências de vida mais gratificantes e repletas de significado, que se complementa em  áreas comuns que privilegiam ambientes amplos, funcionais e requintados, revestidos de pura nobreza, planejados para seus melhores momentos de lazer e entretenimento, convívio social e familiar, relaxamento e celebração, ao lado de quem mais importa, emoldurados por jardins meticulosamente projetados,  que promovem uma atmosfera de paz e tranquilidade em meio ao ritmo acelerado da cidade. 
+São apartamentos de 02 quartos, com até 02 suítes , com metragens que variam de 73,56m² à 82,66m² e até  02 vagas de garagem. Projetos que aliam sofisticação e contemporaneidade , com finos acabamentos e reversibilidades que valorizam a integração dos espaços e a sensação de aconchego e acolhimento  que você e sua família merecem. 
+Agende uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 e conheça o apartamento decorado . 
+Imagens meramente ilustrativas. Unidades sujeitas à disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-dos-jasmins-02-quartos-noroeste-468044</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>R.16/105476</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>12099e12099</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sintonia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SINTONIA RESIDENCIAL
+QNM 12 LOTE 05 - CEILÂNDIA CENTRO/DF
+Entrega prevista: ABRIL/2024.
+Em ótima localização, Ceilândia Centro, a UNIK Construtora chega à região com o Residencial Sintonia, em frente à Praça dos Eucaliptos (completa estrutura de lazer e esporte), próximo a bancos, comércios, escolas, supermercados, feira permanente e toda estrutura de serviços. Com projeto assinado pelo renomado arquiteto Julio Crosara, o Residencial Sintonia traz arquitetura moderna, e fachada com aproveitamento de luz natural.
+CARACTERÍSTICAS:
+109 APTOs com área de 54m² à 59,90m²;
+04 pavimentos de garagem (119 vagas);
+16 pavimentos de apartamentos (2º ao 16º sendo 7 und. por andar e no 17º 4 und.);
+03 elevadores (2 sociais e 1 de serviço);
+Hall de entrada;
+Apartamentos com 2 quartos, sendo 1 suíte com varanda e 2 quartos, sendo 1 suíte;
+Apartamento com final 06 vazado (essa tipologia foram todas vendidas);
+Apartamentos com 2 vagas de garagem (ainda restam 3 unidades);
+*109 vagas de bicicleta, uma para cada apartamento;
+Área Total da Construção: 11.392,53 m2;
+Lazer com brinquedoteca, salão de festas e academia no 1º pavimento, e no 17º pavimento churrasqueira e piscina**.
+* As áreas comuns não serão entregues mobiliadas.
+* 9 unidades com 2 vagas de garagem
+O Residencial Sintonia foi projetado para oferecer bem-estar para além do seu apartamento.
+Você e sua família contam com brinquedoteca, salão de festas e academia, além de churrasqueira e piscina na cobertura, para deixar o dia a dia muito mais leve e em equilíbrio com qualidade de vida que vocês merecem!
+Que tal morar em um local que oferece tudo o que você sempre sonhou para viver bem?
+Dimensões da piscina:
+1,20 m de profundidade
+3,4 m de largura
+7,27 m de comprimento
+Uma experiência de lazer nas alturas e em sintonia com momentos de pausa necessários! 
+Em um espaço com churrasqueira e piscina e estrutura moderna, as confraternizações em família vão ser muito mais proveitosas.
+Ideal para oferecer tranquilidade e conforto, o local é perfeito para reunir a sua família e amigos, e todos vivenciarem momentos únicos!
+*UNIDADES A PARTIR DE R$302MIL.
+54,60m²
+Unidade 207, 2 quartos + suíte + varanda.
+1 vaga de garagem
+"OFERTA POR TEMPO LIMITADO!"
+Temos a UNIDADE DECORADA, unidade 107.
+Temos também uma unidade MODELO, unidade 105.
+AGENDE sua visita comigo!
+AINDA TEMOS 01 ÚLTIMA UNIDADE COM 02 VAGAS DE GARAGEM. 
+CORRETOR LUAN FRANÇA CRECI 30.271</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-sintonia-959658</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Luan França Santos</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>CEILÂNDIA - CEILANDIA NORTE</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>SINTONIA</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ilha Bela Residence 03 quartos - EPTG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Ilha Bela Residence, apartamento de 3 quartos, sendo 1 suíte e 2 semissuítes e 02 vagas de garagem , no Guará I : Experimente o Excepcional. Mais um empreendimento com  a marca da solidez , segurança e qualidade construtiva Emplavi , há 41 anos construindo histórias felizes em Brasília, com mais 31.000 imóveis entregues no prazo. 
+A simetria perfeita entre beleza arquitetônica e funcionalidade, no lugar ideal para os melhores momentos em família ou na companhia dos amigos, com lazer completo e diferenciado,  áreas comuns diversificadas e funcionais e espaços amplos revestidos de requinte e sofisticação, que proporcionam conforto e praticidade , o Ilha Bela residence apresenta uma proposta única de viver e morar em Brasília, com a qualidade de vida que você e sua família sempre sonharam , harmonizando a intensidade da uma grande cidade , com momentos únicos de convivência, relaxamento e muita diversão.
+O Ilha Bela Residence está localizado no Guará I, em frente à EPTG, a poucos minutos do Plano Piloto e com acesso rápido a toda uma gama de equipamentos públicos, parques,  shoppings, supermercados, feiras, escolas, farmácias e comércio em geral e às principais vias de acesso ao centro de Brasília,  além de duas estações de metrô e dois terminais de ônibus.
+Com metragens que variam entre 97,44m² e 109,12m² e com 2 vagas de garagem, os apartamentos do Ilha Bela residence, oferecem uma experiência inigualável de conforto , praticidade e sofisticação, mesclando elementos nobres e contemporâneos, com um projeto definitivo, inteligente e funcional, feito para momentos únicos de convivência, aconchego e bem-viver em família. 
+Um novo estilo de viver o excepcional espera por e você e sua família. 
+Fale com um corretor credenciado Emplavi  , agende uma visita no ponto de vendas e conheça as obras aceleradas.
+As imagens apresentadas são meramente ilustrativas. Unidades sujeitas à disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-ilha-bela-residence-03-quartos--eptg-468058</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>GUARÁ - GUARA I</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>R-7 M.14916</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>10886e10886</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>EPTG</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cobertura Parque dos Jasmins 2 quartos</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) às coberturas privativas com até 02 suítes do Parque dos Jasmins no Setor Noroeste: Viva seu melhor momento. O mais novo empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi , há 41 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo. 
+Estrategicamente localizado na quadra SQNW 307, uma das melhores localizações do Setor Noroeste, a poucos minutos do Parque Burle Marx e das principais vias de acesso ao bairro, o Parque dos Jasmins está perfeitamente integrado ao ritmo vibrante e dinâmico de Brasília e, ao mesmo tempo, conectado à tranquilidade, segurança e sustentabilidade urbana que só um bairro conceitualmente integrado à natureza pode proporcionar aos seus moradores, em sintonia perfeita com um belíssimo conjunto arquitetônico , contemporâneo, completo e harmonioso, cuidadosamente orientado a agregar aos seus melhores momentos experiências de vida mais gratificantes e repletas de significado, que se complementa em  áreas comuns que privilegiam ambientes amplos, funcionais e requintados, revestidos de pura nobreza, planejados para seus melhores momentos de lazer e entretenimento, convívio social e familiar, relaxamento e celebração, ao lado de quem mais importa, emoldurados por jardins meticulosamente projetados,  que promovem uma atmosfera de paz e tranquilidade em meio ao ritmo acelerado da cidade. 
+São coberturas privativas  com até  02 suítes e metragens que variam de 158,70m² à 165,32m² com  02 vagas de garagem. Projetos que aliam sofisticação e contemporaneidade , com finos acabamentos e reversibilidades que valorizam a integração dos espaços , a  exclusividade e o bem - estar expressos em momentos únicos de convivência , aconchego e acolhimento  que você e sua família merecem. 
+Agende uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 e conheça o apartamento decorado . 
+"As imagens apresentadas são meramente ilustrativas. Unidades sujeitas à disponibilidade."</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-parque-dos-jasmins-2-quartos--342664</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>R.16/105476</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>12099e12099c</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pensado em cada detalhe para trazer uma vida de luxo em um dos bairros mais nobres de Brasília.
+O Residencial Márcia Kubitschek traz apartamentos e coberturas duplex com 3 ou 4 quartos de 119m² a 303m² e até 4 vagas de garagem.
+Próximo a dois importantes parques do Distrito Federal e a apenas 10 minutos do centro de Brasília, o residencial conta com área de lazer completa, garantindo qualidade de vida para toda família.
+O comprador, durante o período de construção do empreendimento e respeitando os prazos da obra, poderá escolher entre as opções de planta que melhor se adequam ao seu perfil. Entrega prevista para fevereiro de 2025.
+Agende uma visita com um de nossos corretores e conheça os detalhes deste magnífico empreendimento no bairro mais contemporâneo de Brasília.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-marcia-kubitschek-389813</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>389813</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Viva Residence Service Park Sul</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>O lançamento do ano!
+Viva Residence Service Park Sul!
+Viva o melhor investimento!
+- Excelente localização no Park Sul;
+- Altíssimo padrão de construção e acabamento;
+- Plantas inteligentes;
+- Unidades Rooftop;
+- Unidades Garden
+- Unidades com vista livre;
+- Lazer completo;
+- Pool de locação;
+- Serviços pay-per-use.
+VENHA CONHECER O NOSSO APARTAMENTO DECORADO E NOSSA MAQUETE.
+ CENTRAL DE VENDAS PARK SUL.
+CORRETORES DE PLANTÃO.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-viva-residence-service-park-sul-390700</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Conceito</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>R-2/106852</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>390700</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LÉT PARQUE 2 e 3 QUARTOS ATÉ 90%  BRB</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Adquira seu Imóvel para Morar ou Investir .Apartamento à Venda em Águas Claras, 2 e 3 Quartos , Apartamentos com Lazer Privativo  e Coberturas Privativas e Coletivas 
+               Entrega Rápida, JUNHO 2024 .   
+               QUASE PRONTO PARA MORAR - EM ACABAMENTO
+              Apartamentos de 2 e 3 Quartos de 52 a 137 m2 
+              Sinal de R$ 10% + Financiamento pelo Banco Regional de Brasília BRB
+              RESIDENCIAL LET PARQUE ÁGUAS CLARA, ENTRE O  METRÔ E O PARQUE ECOLÓGICO DE ÁGUAS CLARAS 
+               Fachada em Granito Ecológico e Jardim Suspenso 
+                Fechadura Eletrônica na Porta Social dos Apartamentos do Residencial Lét Parque Aguas Claras 
+                Lobby do Residencial Lét Parque Águas Claras
+                 Delivery : Espaço destinado a armazenamento com temporário de encomendas  
+                 Co-Office e Espaço Mobi e Bri 
+              Localizado em uma Região Estratégica de Águas Claras , tem seu ponto alto a comodidade, facilidade e praticidade para seu dia a dia. Fica a poucos metros do Parque Ecológico, Uniplan e Estação do  Metrô.
+             Todo o empreendimento foi pensando para proporcionar ao seus moradores o maior conforto, tranquilidade e segurança. Tem um excelente padrão de acabamento e conta com alguns diferenciais:
+ Acesso por biometria
+ CFTV
+Gerador de energia para áreas comuns
+ Elevadores de última geração, 3 Elevadores 
+ Espaço oficina para pequenos reparos c/ compressor e ferramentas
+Além disso tem uma área de Lazer nas Alturas ( Coberturas Coletivas e privativas )  que trás toda diversão e descanso para você e seus convidados.
+ Piscinas Aquecida Adulto e Infantil 
+   Academia 
+  Salão de Festas com Cozinha 
+  Espaço Gourmet 
+ Churrasqueiras com bancada e pia 
+ Salão de festas
+  Playground com piso emborrachado 
+ Brinquedoteca
+E muito mais.
+Apartamentos :
+Temos 2 Quartos com suíte
+-com a metragem que variam de ...
+Temos 3 Quartos com suíte
+- com a metragem que variam de ...
+Temos coberturas lineares
+- Com a metragem que variam de ...
+Temos apartamentos Gardens  / Terraço
+- Com metragens que variam de ...
+Acabamento:
+ Piso em Porcelanato Biancogres 90 x 90 cm.
+ Ponto p/ ar condicionado tipo Split
+ Ponto de água para geladeira, filtro e lava louça
+ Bancadas em granito
+ Ralo linear
+ Previsão de 01 tomada para carro elétrico por apartamento
+       O Empreendimento Residencial Lét Parque Águas Claras é Financiado pelo Banco Regional de Brasília  BRB ou pela o Banco da sua escolha após o Habite-se. Empreendimento com previsão de entrega Rápida, Em fase de Acabamento 
+Surpreenda-se, Conheça os Apartamentos Decorado, Modelo e Técnico . Agende a sua visita no seu melhor horário.
+       Miranda 
+      Corretor de  Imóveis 
+       Creci DF 08087 
+        61 9</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento--let-parque-2-e-3-quartos-ate-90--brb---737786</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Miranda de Sá</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - NORTE</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>R-16 registrado na Matricula nº 141034 no Cartório do 3º Oficio de Registro de Imóveis do Distrito Federal 
+. Construtora Apex Engenharia a 47 anos Construindo Excelentes Oportunidades Para Morar ou Investir.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>737786</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Apartamento Águas Claras- Península</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Apartamento a venda com 4 quartos em Águas Claras, Pronto para morar!
+Com 39 mil m² de jardins e áreas de lazer, o Península dispõe de apartamentos de 4 quartos, amplos espaços internos, parque aquático, pista de cooper, quadras esportivas e paisagismo assinado pelo premiado Benedito Abbud.
+O empreendimento ainda conta com uma localização privilegiada e tráfego nas melhores vias de acesso à Águas Claras. Fica próximo à EPTG, supermercados, estações de metrô, shopping, faculdades e colégios renomados, tudo para facilitar e melhorar o seu dia a dia.
+Venha morar em um verdadeiro oásis e conquiste qualidade de vida!
+Apartamento 4 quartos 158m² com 3 vagas de garagem.
+Projeto de Arquitetura: Gomes Figueiredo Arquitetura
+Projeto paisagístico: Benedito Abbud Arquitetura Paisagística
+Decoração de interiores: Cybele Barbosa Arquitetos Associados.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-apartamento-aguas-claras-peninsula--886575</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PENÍNSULA RESORT RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - SUL</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>886575</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Gás Canalizado 
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Piso em Porcelanato 
+                                    Home Theater</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Apartamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GIARDINI DI PIAZZA
+R$ 382.990,00
+Área Útil: 60,34
+Bairro: Setor de Industria, QI 5
+Quartos : 2
+Valor R$/m²: 6.115,18
+Cidade: Gama
+Suíte: 1
+DESCRIÇÃO
+        A MRV é uma incorporadora que atua no mercado imobiliário, a mais de 40 anos, apresenta imóveis construídos em concreto, garantindo assim um conforto superior em sensação térmica e acústico no interior do apartamento. Com mais de 500 mil chaves entregues no Brasil, sendo mais de 12 mil entregue em Brasília, tornando assim a melhor opção investimento em imóvel. A MRV por ser a maior incorporadora da América Latina, com presença no Brasil em 22 estados e em mais de 160 cidades brasileira, é um porto seguro.
+       Apartamentos de 59,87 m² à venda no Gama, com 2 quartos com suíte, varanda gourmet e 1 vaga de garagem.
+Apartamento   com 59,87 m².
+•	02 quartos com suíte;
+•	Banheiro social;
+•	Cozinha/área de serviço;
+•	Sala de estar/jantar com varanda.
+Pavimento Tipo (1º ao 9º pavimento):
+•	Duas torres, com 8 apartamentos por andar, totalizando 144 apartamentos.
+•	02 elevadores em cada torre.
+•	Torre garagem com 3 pavimentos.
+•	Área de lazer sobre a torre da garagem.
+Localização especial, QI 05, próximo aos Supermercado Eldorado e Vivendas. 
+Área de lazer decorado e equipada sem custo adicional.
+?	Salão de festas;
+?	Praça de convivência;
+?	Espaço fitnes;
+?	Gazebo
+?	Espaço gourmet;
+?	Espaço kids;
+?	Área com churrasqueira;
+?	Piscina adulto;
+?	Piscina infantil;
+?	Pet place;
+?	Bicicletário;
+Diferencias
+?	Paredes em concreto;
+?	Preparação para ar-condicionado nos quartos;
+?	Portaria com monitoramento 24 horas
+Previsão para emissão de carta de habite-se para 31/03/2026, mas a MRV está entregando os empreendimentos com até 6 meses de antecedência.
+Financiamento de até 70% junto ao Banco Itaú, como opção de Agente Financeiro.
+Agende uma visita e conheça o decorado e todas as opções disponíveis!
+Enecy Souza – CRECI 30.495 DF</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-giardini-di-piazza-951958</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>382.99</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Enecy Souza</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>GAMA - SETOR INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>951958</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Residencial Solar Brasilis Apartamento com 3 Quartos 1 Suíte Lazer Completo
+Endereço: Quadra 202 Conjunto 02 - Samambaia Norte.
+Lançamento na melhor localização de Samambaia!
+As melhores plantas.
+Melhor lazer da região.
+A melhor condição de pagento!
+Valores para quantidade limitada* consulte condições.
+Valores sujeito a alterações sem prévio aviso*
+São apartamentos com 3 quartos com 82 e 89 m²
+Em uma das regiões mais valorizadas de Samambaia.
+Próximo a estação de metrô, feira permanente, supermercado tatico, fórum, escolas, academias, igrejas e comércio variado.
+Fácil acesso a BR 060
+Fácil acesso a Ceilândia e Taguatinga, campus da UNB.
+lazer completo;
+Salão de festas, Fire Place, brinquedoteca, parquinho infantil, espaço gourmet, coworking, 2 churrasqueiras, salão multi-uso, academia, espaço pet, mini quadra poliesportiva, bicicletário, banheiros e vestiarios e muito mais!
+Portaria 24h com pulmão de segurança e espaço delivery.
+Central de gás.
+Preparação completa para ar condicionado nos quartos e sala.
+Teto rebaixado em gesso.
+Bancadas da cozinha em granito.
+Bancadas dos banheiros em granito.
+AGENDE VISITA, CONHEÇA O APARTAMENTO DECORADO.
+E venha conheçer o melhor e mais completo condomínio de Samambaia!
+Corretor Luan França    Creci /DF  30.271</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-solar-brasilis-874008</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Luan França Santos</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA - SAMAMBAIA NORTE</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>brasilis</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Área de Serviço Coberta 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Montana Residencial 2 e 3 quartos AC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Montana  Residencial, Apartamentos 2 e 3 quartos sendo 1 suíte , localizado em Águas Claras: Eleve sua experiência de viver.
+Localizado em Águas Claras , na QS 5, Rua 400, próximo a grandes centros comerciais e acadêmicos em uma das regiões mais prósperas e desenvolvidas do Distrito Federal, o Montana residencial é um convite diário à qualidade de vida e ao bem-estar que você e sua família sempre sonharam. 
+São apartamentos de 2 e 3 quartos sendo 1 suíte e até 2 vagas na garagem em um complexo residencial único, completo e com lazer diferenciado , que traz a marca da solidez, da segurança e do padrão construtivo Emplavi, há 42 anos construindo histórias felizes, com mais de 31.000 imóveis entregues no prazo. 
+TORRE A - ENTREGUE - PRONTO PARA MORAR!!! 
+TORRES B e C : ENTREGA EM 2024  
+Agende uma visita com um de nossos corretores credenciados Emplavi , visite as obras aceleradas e aproveite condições especiais de negociação PARA AS ÚLTIMAS UNIDADES DISPONÍVEIS e conecte-se com seu novo endereço em Águas Claras. 
+Imagens meramente ilustrativas. 
+- Piscinas adulto com raia e deck;
+- Piscina infantil;
+- Sauna com descanso;
+- 3 salões de festas para uso simultâneo e independente;
+- 2 Salões Gourmet para uso simultâneo e independente;
+- Playground externo;
+- Brinquedoteca;
+- Sala de pebolim:
+- Sala de tênis de mesa;
+- Miniquadra esportiva;
+- 3 churrasqueiras para uso simultâneo e independente;</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-montana-residencial-2-e-3-quartos-ac-282506</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - AREAL</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>R.6/340684</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>282506e5982</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>O Union 511  Residence Mall é o primeiro Condomínio Residencial do Noroeste! Localizado em uma das melhores quadras, ele se estende por toda a Quadra 511 com total mobilidade e facilidades integradas as entradas e saídas do bairro. O Noroeste é um bairro vibrante, formado por moradores que vivenciam a região. Próximo ao parque, com quadras poliesportivas e uma vida noturna animada, com bares e restaurantes para toda a família. 
+Do empreendimento: Fachada revestida em granito insertado e vidros   Mall de lojas no térreo e 3 andares com unidades de 1 e 2 quartos com e sem suíte. Lazer completo com 2000m de extensão. 
+Lazer: piscinas adulto e infantil, sauna, brinquedoteca e espaço kids, sport bar, sala de games, boulevard para descanso e se reunir com amigos, academis, bar de apoio, salas equipadas para suas reuniões e videoconferência, lockers (para receber suas encomendas), delivery com refrigeração, lavanderia, bicicletário, fraldário, salão de festas, salão gourmet, garagem vinculada a unidade.
+Apartamento: No Union você tem a opção de escolher seu apartamento de 2 quartos com suíte ou sem suíte. Unidades de 1 quartos.  Piso em porcelanato, bancadas em granito, ponto de água para geladeira, ponto de gás  e ponto de água para máquina de lavar. Fechadura eletrônica.  E você recebe instalado um coktoop de 4 bocas.
+Agende uma visita e venha conhecer os apartamentos decorados!
+Valores sob consulta.
+Fabiana Rocha</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-union-511-941288</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Fabiana Rocha</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                                                    Aquecimento Solar
+                                    Área de Lazer
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Parque das Castanheiras 3 suítes NW</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque das Castanheiras, 3 suítes , no Setor Noroeste: Viva o extraordinário. Mais um empreendimento com a marca da solidez , segurança e qualidade construtiva Emplavi, há 41 anos construindo histórias felizes em Brasília , com mais de 31.000 imóveis entregues no prazo, nas melhores e mais valorizadas localizações do DF. 
+Localizado em uma das melhores quadras do Setor Noroeste , a SQNW 102 , próximo ao Parque Burle Marx e ao Eixo Monumental, o Parque das Castanheiras incorpora conceitos inovadores que transmitem elegância e imponência às suas linhas e contornos, ao mesmo tempo em que elementos nobres, modernos e definições precisas de luxuosidade e elegância se conectam para dar forma a um conjunto arquitetônico harmonioso e totalmente genuíno, com diferenciais construtivos que oferecem uma atmosfera de modernidade, ampla comodidade e uma sensação única de bem-estar e segurança, em perfeita harmonia com a sofisticação e o requinte do Noroeste, um dos bairros mais extraordinários de Brasília.
+Do pilotis à cobertura coletiva, suas áreas comuns foram pensadas para criar harmonia absoluta entre o belo e o funcional, em ambientes amplos, projetados e trabalhados com acabamentos de altíssimo padrão e tecnologia de ponta, buscando sempre a forma mais extraordinária de proporcionar o melhor lugar para se viver e morar com a qualidade de vida que você e sua família merecem, refletindo personalidade em cada linha e esplendor, seja qual for a ocasião, transformando a rotina dinâmica de uma grande cidade, em momentos únicos de lazer, entretenimento, relaxamento e convívio familiar. 
+São apartamentos com 3 suítes e metragens que variam entre 124,18m² e 152,56m² e até 03 vagas na garagem. Um projeto definitivo,  inspirado no estilo de vida de quem valoriza a liberdade e privilegia a versatilidade , com espaços inteligentes e funcionais, que promovem praticidade, funcionalidade e uma sensação de tranquilidade e aconchego para aqueles momentos únicos de convívio social e familiar. 
+Seja bem-vindo ao Parque das Castanheiras, o lugar certo para dar sentido e valorizar suas maiores conquistas ao máximo, vivendo o extraordinário em toda sua intensidade. 
+Agende uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o apartamento decorado e as obras aceleradas .
+Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-das-castanheiras-3-suites-nw-468036</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>R. 11/131.440</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>11250e11250</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LANÇAMENTO PARQUE DOS BURITIS NOROESTE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>O melhor 04 Suítes Premium do Setor Noroeste vai conquistar você! Seja bem-vindo ao Parque dos Buritis : a evolução do alto padrão.
+Um conjunto arquitetônico exuberante , com a marca da solidez e da qualidade construtiva Emplavi.
+Uma nova experiência, única e inspiradora, que elevará seu conceito de moradia de alto luxo , a um nível inimaginável, está chegando em um dos bairros mais valorizados de Brasília. 
+Projetos reversíveis e inteligentes que vão 212,62m² a 232,86m² com até 04 vagas de garagem e coberturas privativas com até 456,80m² com 05 vagas de garagem,  localizado em uma das quadras mais consolidadas do Setor Noroeste, ao lado do Parque Burle Marx.   
+Agende uma visita à Central de vendas Emplavi Noroeste , encante-se com o futuro do seu novo endereço em Brasília  e garanta negociações exclusivas, com condições especiais de lançamento. 
+Parque dos Buritis 04 suítes Premium : a evolução do alto padrão.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-lancamento-parque-dos-buritis-noroeste-913452</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>R15-105402 - Cartório do 2º Ofício de registro de imóveis de Brasília.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>913452</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Studio’s 910 - Trabalhe e Viva com Estilo no Coração da Asa Norte!
+Descubra o Studio’s 910, o local perfeito para unir trabalho, natureza e qualidade de vida. Localizado no coração da Asa Norte, no SGAN 910, ao lado do Parque Burle Marx, este empreendimento inovador oferece estúdios comerciais prontos para receber você e seus negócios.
+Características Únicas:
+Os estúdios do Studio’s 910 possuem plantas de 30 a 33m², perfeitas para atender às necessidades do seu negócio, e incluem uma vaga de garagem. Tenha a liberdade de trabalhar em um ambiente inspirador, cercado pela natureza, e desfrute da comodidade de caminhar ao ar livre no seu tempo livre.
+Projeto Arquitetônico Mediterrâneo:
+O Studio’s 910 apresenta um projeto arquitetônico com inspiração mediterrânea, proporcionando um ambiente único e agradável. Pátios e calçadas entre os blocos, permeados por jardins, oferecem acesso sombreado e uma atmosfera acolhedora para a melhor experiência possível.
+Privacidade e Acessibilidade:
+Composto por quatro blocos independentes, cada um equipado com hall de entrada, escada e elevador exclusivos, o Studio’s 910 garante privacidade aos usuários. A entrada única por calçada com guarita assegura segurança. Além disso, o empreendimento conta com semienterrado e subsolo de garagem, com acesso por escadas e elevadores, para maior comodidade.
+Perfeito para Trabalhar ou Investir:
+O Studio’s 910 é a escolha perfeita para quem busca um ambiente de trabalho inspirador ou deseja investir em um empreendimento promissor. Não perca a oportunidade de fazer parte desse projeto que une praticidade, elegância e uma localização privilegiada.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-studios-910-892181</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>367.302</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Área de Serviço
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Prestige Residence 03 quartos - Guará II</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Prestige Residence 03 quartos , localizado na QI 29 do Guará II : O privilégio de viver bem.  Um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi, há 42 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo. 
+ENTREGA EM 2024!!! 
+Surpreendente, contemporâneo, definitivo. Um belo e harmonioso conjunto arquitetônico de 2 e 3 quartos, que se ergue em uma das principais avenidas do Guará II , ressignificando o conceito de viver e morar em uma das regiões mais cobiçadas e valorizadas do Distrito Federal, cercado de facilidades e segurança, em um condomínio de luxo,  compartilhando de modernos , amplos e sofisticados ambientes  comuns e de uma estrutura diferenciada de lazer que promovem uma experiência única de convívio , entretenimento e bem-estar  para toda a família , em uma  valiosa conexão com o esplendor de ser exclusivo. 
+São apartamentos de 03 quartos, sendo 1 suíte e 2 semissuítes , com metragens que variam de 103,74m² a 104,52m² e 02 vagas de garagem, planejados e alinhados com o seu jeito único e exclusivo de morar , onde modernidade e funcionalidade se unem para dar vida a um projeto definitivo e conectado com seus melhores momentos de convívio e aconchego familiar e com a qualidade de vida que você sempre sonhou. 
+Conheça o Prestige Residence , conecte-se  ao futuro do seu novo endereço , na melhor localização do Guará II ,  e sinta-se privilegiado. 
+Agende uma visita com um corretor credenciado Emplavi e conheça as obras aceleradas.
+ENTREGA EM 2024!!!
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-prestige-residence-03-quartos--guara-ii-853325</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>GUARÁ - GUARA II</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>R-6-51370</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>853325</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>GUARÁ</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4 quartos: Residencial Geraldo Estrela - LANÇAMENTO _ SQN 113 - VAZADO VISTA LIVRE
+-  Apartamento 4 quartos de canto: 162m² e 167m² com 2  suítes e 2 semissuítes; sala  ampla de estar e jantar com varanda e área de serviço separada. 
+- Opção de planta com cozinha padrão ou americana;
+*COBERTURAS DUPLEX
+- Apartamento duplex 4 quartos: 335m² e 3 vagas de garagem 
+- Área de serviço separada;
+- Vestiário de descanso;
+- Banheiro de serviço;
+- 2 ou 3 garagens.
+ÁREAS COMUNS:
+TÉRREO: Academia
+COBERTURA COLETIVA SUL: Espaço Gourmet, Terraço coletivo, Churrasqueira coletiva, lavabo.
+COBERTURA COLETIVA NORTE: Sauna, ducha, Deck solar  e piscina coletiva.Execelente localização perto de tudo!!! Faculdades, colégios, perto do hospital Santa Helena e Santa Luzia , comércio local consolidado, perto dos shoppings e Boulevard e Iguatemi etc.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-geraldo-estrela-784715</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>IC Corretora de Imóveis</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - ASA NORTE</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>784715</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Residencial Lagos</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LAGOS RESIDENCIAL - HABITAR CONSTRUTORA
+QR 104 Conjunto 10 Lote 01 - Samambaia/DF
+IMÓVEL COM HABITE-SE, PRONTO P/ MORAR USE FGTS E MUDE JÁ.
+Sinal/ entrada a partir de R$5.000,00* 
+Agende uma visita e conheça as CONDIÇÕES ESPECIAIS!!
+Conheça a unidade Modelo e Decorado.
+Apartamentos com 3 Quartos 1 Suíte 1 vaga.
+Área privativa 63,40 m2
+Composto por sala de jantar, sala de estar, cozinha, área de serviço, 3 quartos sendo 01 suíte e banheiro social.
+Em localização privilegiada, está a 150m da Estação do Metrô, e a cerca de 250m de academias, supermercado, loja da Castelo Forte e mais, estará a menos de 150m do futuro Shopping de Samambaia!
+O Empreendimento é formado por dezesseis pavimentos, sendo: 
+Um pavimento TÉRREO (garagem e acesso ao empreendimento).
+Um pavimento MEZANINO (garagem e lazer).
+Doze PAVIMENTOS TIPO (1º ao 12º PAVIMENTOS - 04 apartamentos por andar.
+O lazer é composto por:
+Piscina
+Churrasqueira 
+Sauna
+Espaço para Salão de Festas
+Espaço para Academia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-lagos-954205</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>378.298</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Luan França Santos</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA - SAMAMBAIA SUL</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>LAGOS</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Vista Livre
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Parque das Palmeiras 02 quartos Noroeste</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque das Palmeiras, apartamento de 2 quartos, sendo até 2 suítes no Noroeste: Um convite à exclusividade. Uma convergência perfeita de atributos arquitetônicos e diferenciais construtivos que traduzem uma experiência única com a solidez, a segurança ea qualidade construtiva Emplavi, a marca que é referência no segmento alto padrão da Capital , há 41 anos construindo histórias felizes e mais de 31.000 imóveis entregues no prazo. 
+Localizado na SQNW 302, próximo ao Eixo Monumental, ao Parque Burle Marx e às principais vias de acesso ao bairro, o Parque das Palmeiras vai aos poucos encantando pela sua versatilidade, apresentando um estilo próprio de viver em uma grande cidade, com a tranquilidade, a qualidade de vida e a segurança que você e sua família merecem. Um residencial completo, de arquitetura arrojada e imponente, diferenciais construtivos e tecnológicos de última geração, ambientes amplos e planejado nos mínimos detalhes para proporcionar toda a sofisticação e requinte de um empreendimento de alto luxo, usufruindo de uma infraestrutura completa de lazer, descanso ou entretenimento, ao lado da família e dos amigos. 
+Com apartamentos de 02 quartos e até 02 suítes e metragens que variam entre 68,26m² e 77,38m² com até 2 vagas na garagem, o Parque das Palmeiras Noroeste é o convite certo para uma nova experiência de exclusividade com o melhor que a vida pode oferecer, em espaços que privilegiam a união de elementos nobres e contemporâneos, com projetos versáteis , inteligentes e funcionais que primam pela excelência em acabamentos diferenciados  e inovações que garantem mais conforto, praticidade, economicidade e segurança para toda a família, equilibrando a agitação de uma rotina diária intensa , com o  aconchego de momentos  únicos em família . 
+Seja bem-vindo ao Parque das Palmeiras: um convite à exclusividade.
+Fale com um de nossos corretores e agende uma visita à Central de Vendas e decorados Emplavi Noroeste – SQNW 102 , conheça o apartamento decorado e as obras aceleradas. 
+As imagens apresentadas podem ser meramente ilustrativas. Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-das-palmeiras-02-quartos-noroeste-456783</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>R.I: R6131-525</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>11252e11252</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PRONTO PARA MORAR!
+Elleven Residence 
+ Conheça o condomínio que vai evoluir o conceito de morar no Lago Norte, o único condomínio residencial fechado do Plano Piloto, na região mais nobre de Brasília: O Lago Norte.
+Tudo que você sempre sonhou está aqui, no Lago Norte. Apartamentos com segurança e lazer em um condomínio fechado.
+Com excelente localização e acesso facilitado aos principais pontos de Brasília, basta uma curta caminhada para estar no Iguatemi Shopping, o mall mais sofisticado da cidade.
+O comércio local bem desenvolvido oferece os serviços e produtos para facilitar o seu dia-a-dia e deixar a sua rotina ainda mais descomplicada.
+Apartamentos com 3 quartos sendo uma suíte duas semissuítes e duas vagas de garagem.
+Entre em contato agora mesmo e agende a sua visita!</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-elleven-residence--390812</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Conceito</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - LAGO NORTE</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>761446</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL VENEZA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>?? *LANÇAMENTO SAMAMBAIA*  
+?? *RESIDENCIAL VENEZA*  
+?? *EXCELENTE LOCALIZAÇÃO*
+ ?? *QUADRA 320 DE SAMAMBAIA SUL*  
+? 2 QUARTO DE 48M² 
+? GARAGEM 
+? GUARITA DE SEGURANÇA  
+? BICICLETARIO  
+?? *UNIDADES SEM VAGA DE R$255.000 E COM VAGA DE R$270.000*  ?? *ENTRADA EM 60X*   
+?? *PODE USAR FGTS* Se 
+??? *ENTREGA PARA JULHO DE 2024*
+Quer mais informações ou agendar sua visita, fale comigo!
+Fidelize-se com seu Corretor de Imóveis. Exija o CRECI do Vendedor, e tenha a certeza de que está sendo atendido por um Profissional, Autorizado e Credenciado.
+ELAINE ANDRADE
+CRECI:23.052</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-veneza--711383</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>255</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Carolina e Andrade Imóveis</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>711383</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Piso em Porcelanato</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LUMI TOWER RESIDENCES</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Numa região em pleno desenvolvimento, nasce um projeto repleto de novas possibilidades - O LUMI TOWER RESIDENCES foi concebido para oferecer o máximo em comodidade, integrando lazer, praticidade e tecnologia, proporcionando o conforto para o dia a dia de quem busca paz e Tranquilidade.
+Torre única com 124 unidades - 11 pavimentos 
+02 quartos com suíte e varanda Gourmet - 60m² - o1 vaga 
+03 quartos com suíte e varanda Gourmet- 73m² - 02 vagas
+Cobertura Linear 03 quartos sendo 02 suítes com 133m² - 02 vagas
+04 lojas Comercias
+Previsão para ar condicionado nos quartos e salas 
+Gás Canalizado com medição individual 
+Água com previsão para individualização 
+Fechadura Eletrônica
+Lazer completo com Piscina Adulto e Infantil, Academia, Churrasqueiras, Salão de Festas, bicicletário, Espaço Gourmet 
+141 vagas - 135 vagas residenciais (sendo 4 PCD E 02 para carro elétrico) e 6 comerciais ( sendo 1 PCD E 1 Idoso).
+Encante-se Visitando o Decorado!! 
+Ellys Pessôa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-lumi-tower-residences-886522</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Imobthelly</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - AREAL</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>886522</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Piscina
+                                    PlayGround
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Varanda
+                                    Piso em Porcelanato</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Para morar, trabalhar e se divertir no mesmo lugar.
+No Manhattan Shopping, é possível ter o seu apartamento, sua sala comercial e ainda fazer compras. 
+Apartamentos tipo loft com até 42m², com cozinha pré-montada, garagem e área de lazer completa com um incrível rooftop, piscina de borda infinita, espaço gourmet e muito mais.
+Torre comercial com salas de até 65m² e opções com terraço, além de contar com academia e coworking.
+Shopping com conceito de exclusividade que se dividirá em butiques e alimentação.
+O empreendimento conquistou antes mesmo do lançamento, o MUSE Design Awards na categoria fachada, paisagismo e iluminação.
+Agende uma visita com um de nossos corretores e conheça os apartamentos decorados.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-manhattan-shooping-residencial--626377</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>445.815</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>626377</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Parque das Figueiras 03 quartos Noroeste</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque das Figueiras,  3 quartos no Setor Noroeste :  Nobreza por excelência. Mais um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi, há 42 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo.
+ENTREGA EM 2024!!
+A nobreza refletida em um conjunto arquitetônico exuberante e a modernidade expressa em soluções e inovações tecnológicas de última geração, agregadas ao seu alto padrão construtivo, imediatamente conquistam os olhares mais exigentes. São áreas comuns diferenciadas, ambientes amplos e sofisticados e uma completa estrutura de lazer que revelam o cuidado e o primor que a Emplavi agrega às suas obras , que já se tornaram marca registrada de seus empreendimentos no bairro. Atributos que fazem do Parque das Figueiras a escolha certa para quem busca uma experiência única de viver em Brasília, cercada das melhores razões para ser feliz e conquistar a qualidade de vida que sempre desejou. 
+Localizado na Quadra SQNW 103 do Setor Noroeste, ao lado da Asa Norte e próximo ao Eixo Monumental, o Parque das Figueiras é um convite diário à qualidade de vida, unindo a praticidade de um dia a dia agitado, próprio das grandes cidades, com a tranquilidade de um lugar perfeito para relaxar e usufruir de toda segurança e bem-estar que sua família precisa e merece.
+São apartamentos  03 quartos, com metragens que variam entre 101,50m² a 137,92m² e até 03 vagas na garagem,  que privilegiam a exclusividade, o bom gosto e o aconchego de quem aprecia momentos únicos em família, cercados de conforto e sofisticação,  sem abrir mão da  praticidade de espaços inteligentes e funcionais, perfeitos para seu novo momento de vida. 
+Belo, essencial e único. Esse é o conceito que traduz a experiência de viver a nobreza em sua melhor forma. Parque das Figueiras : Nobreza por excelência. 
+ENTREGA EM 2024!!!
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o showroom de acabamentos , os métodos construtivos Emplavi e as obras aceleradas . 
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-das-figueiras-03-quartos-noroeste-343278</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>R-10 / 131460</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>343278e10930</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Up Resort Residencial - Ao lado do futuro Shopping de Samambaia.
+Quadra 102 conjunto 02, Samambaia sul - Brasília - DF.
+Apartamentos de 2 e 3 quartos e coberturas lineares - UP Resort Residencial
+Apartamentos com varanda e suíte sendo o de 2 quartos de 54m² e de 3 quartos de 71m², 1 vaga de garagem. Há 120 passos da estação do metrô de Samambaia Sul e em frente à Castelo Forte de Samambaia.
+Ótimo para investimento e também para morar, condomínio com vários itens de lazer:
+- piscinas adulto e infantil
+- salão de festas adulto
+- salão de festas teen
+- salão de festas Espaço Churrascada
+- 4 churrasqueiras
+- quadra de beach tennis
+- academia
+- sauna
+- descanso de sauna
+- pet care
+Ótima opção de compra e investimento , sem consulta ao spc e Serasa
+sugestão de pagamento:
+Sinal R$ 36.740.56
+42 mensais R$ 1.344,17
+07 semestrais R$ 3.280,41
+financiamento R$ 344.442,75
+Total R$459.257,00
+valores referente ao apto 1407C. (sujeito a alteração sem aviso prévio).
+* 3 quartos com suite e varanda 71,25m² privativos + vaga*
+Sinal R$ 46.767,76
+42 mensais R$ 1.670,28
+07 semestrais R$ 4.175,69
+financiamento R$ 438.447,75
+Total R$584.597,00
+valores referente ao apto 1409C. (sujeito a alteração sem aviso prévio).
+*Cobertura 2 quartos com suite e varanda 102m² privativos + 2 vagas*
+Sinal R$ 68.177,74
+42 mensais R$ 2.434,92
+07 semestrais R$ 6.087,30
+financiamento R$ 639.166,33
+Total R$852.221,77
+valores referente ao apto 1503A. (sujeito a alteração sem aviso prévio).
+*Cobertura 3 quartos com suite e varanda 117,30m² privativos + 2 vagas*
+Sinal R$ 78.482,29
+42 mensais R$ 2.802,94
+07 semestrais R$ 7.007,35
+financiamento R$ 735.771,49
+Total R$981.028,00
+valores referente ao apto 1501B. (sujeito a alteração sem aviso prévio).
+Maiores informações:
+9</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-up-resort-residencial-947972</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Bruno Novais</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA - SAMAMBAIA SUL</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>memorial de incorporação número R.2/378.661 em março 2024. Cartório 3º oficio de Registro de imóveis.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>up54m</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Parque dos Cedros 04 suítes Noroeste</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque dos Cedros , 04 suítes , no Setor Noroeste : O horizonte é o seu mais novo privilégio. Mais um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi : há 41 anos , construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo.
+Erguendo-se na Quadra 306 do Noroeste, próximo ao Parque Burle Marx e às principais vias de acesso ao bairro, o Parque dos Cedros vai aos poucos encantando pela beleza e funcionalidade de seu conjunto arquitetônico, contemporâneo e deslumbrante, que se une à fluidez da natureza que o cerca e ao seu posicionamento estratégico, que dá forma a um cenário perfeito , com uma das vistas mais deslumbrantes da Capital. Da sofisticação rebuscada e inigualável de seus ambientes comuns , dos subsolos à cobertura coletiva , da estrutura de lazer diferenciada à modernidade presente em processos construtivos de última geração, das inovações tecnológicas que agregam maior conforto, segurança e praticidade à toda família, o Parque dos Cedros é a expressão maior de tudo que você espera de um lugar feito para você viver a sua melhor versão.
+São apartamentos  com 04 suítes e metragens que variam entre 165,56m² a 188,50m² com até 4 vagas de garagem , projetadas para oferecer toda amplitude e versatilidade que você e sua família desejam no planejamento de ambientes mais inteligentes, personalizados e otimizados, transformando seus melhores momentos em experiências inigualáveis de vida e felicidade. Um privilégio para quem fez por merecer viver esse novo horizonte de possibilidades, um privilégio que você e sua família viverão a partir de agora. 
+Bem-vindo ao Parque dos Cedros: o horizonte é seu mais novo privilégio.
+Imagens  meramente ilustrativas. Unidades sujeitas a disponibilidade.
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o apartamento decorado  e as obras aceleradas com unidade modelo.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-dos-cedros-04-suites-noroeste-382525</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>R.3 - M. 167.248</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>11240e11240</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Haus Noroeste</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Viva no bairro mais seguro e bem localizado de Brasília, o Noroeste!
+Viva no melhor 4 suítes do bairro, o Haus Noroeste.
+A 5 minutos das principais escolas, hospitais, shoppings e restaurantes. 
+No coração de Brasília, o Haus tem a máxima expressão da sofisticação e qualidade,  e o melhor, está pronto para morar.
+Venha nos visitar e apaixone-se pelo Haus Noroeste!  Quadra 106, bloco C
+- Quadra mais alta do Noroeste (106)
+- Projeto assinado por Júlio Crosara
+- Área comum assinada por Walleria Teixeira
+- Plantas de 200 a 429 m²
+- Janelas com sistema de isolamento acústico
+- Brise camarão
+- Ao lado da ciclovia e cinturão verde do Noroeste
+- Salão de festas
+- Salão gourmet
+- Brinquedoteca
+- Churrasqueira
+- Academia no terraço (com pôr do sol incrível de Brasília)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-haus-noroeste-703729</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Inttermedium</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>MI registrado sob o nº R.8/131504 no Cartório de Registro de Imóveis do DF.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>703729</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Despensa 
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cobertura Parque dos Cedros 04 Suítes NW</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) às coberturas privativas duplex , 4 suítes, do Parque dos Cedros , no Setor Noroeste : O horizonte é o seu mais novo privilégio. Mais um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi : há 41 anos , construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo.
+Erguendo-se na Quadra 306 do Noroeste, próximo ao Parque Burle Marx e às principais vias de acesso ao bairro, o Parque dos Cedros vai aos poucos encantando pela beleza e funcionalidade de seu conjunto arquitetônico, contemporâneo e deslumbrante, que se une à fluidez da natureza que o cerca e ao seu posicionamento estratégico, que dá forma a um cenário perfeito , com uma das vistas mais deslumbrantes da Capital. Da sofisticação rebuscada e inigualável de seus ambientes comuns , dos subsolos à cobertura coletiva , da estrutura de lazer diferenciada à modernidade presente em processos construtivos de última geração, das inovações tecnológicas que agregam maior conforto, segurança e praticidade à toda família, o Parque dos Cedros é a expressão maior de tudo que você espera de um lugar feito para você viver a sua melhor versão.
+São coberturas privativas duplex de alto padrão , com 04 suítes e metragens que variam entre 330,32m² e 374,98m² e 4 vagas de garagem , projetadas para oferecer toda amplitude e versatilidade que você e sua família desejam no planejamento de ambientes mais inteligentes, personalizados e otimizados, transformando seus melhores momentos em experiências inigualáveis de vida e felicidade. Um privilégio para quem fez por merecer viver esse novo horizonte de possibilidades, um privilégio que você e sua família viverão a partir de agora. 
+Bem-vindo ao Parque dos Cedros: o horizonte é seu mais novo privilégio.
+Imagens apresentadas podem ser meramente ilustrativas. Unidades sujeitas a disponibilidade.
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o apartamento decorado  e as obras aceleradas com unidade modelo.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-parque-dos-cedros-04-suites-nw-382533</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>R.3 - M. 167.248</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>11240e11240c</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Parque das Oliveiras 04 Suítes Noroeste</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Parque das Oliveiras, apartamento de 04 quartos sendo 04 suítes no Setor Noroeste : Contemporâneo como você. Uma nova experiência de viver Brasília em sua expressão máxima de beleza, modernidade e qualidade de vida, em um dos endereços mais valorizados da cidade , o Setor Noroeste . Mais uma realização com a marca da solidez, da segurança e da qualidade construtiva que há 41 anos acompanham as realizações da Emplavi , no cenário imobiliário da Capital , com mais de 31.000 imóveis entregues, nas melhores localizações da cidade. 
+Localizado na SQNW 302 , a poucos minutos do Parque Burle Marx e do Eixo Monumental, o Parque das Oliveiras 04 suítes, incorpora um estilo único de vida moderna , dinâmica e conectada, característico das grandes cidades do Mundo , harmonizado com a segurança e a tranquilidade de um bairro ecológico, conceitualmente integrado à natureza, formando um conjunto arquitetônico completo, exuberante e harmonioso , cercado de tudo que você e sua família esperam de um residencial de alto padrão no coração de Brasília.
+Com metragens que variam entre 145,98m² a 163,30m² , com até 03 vagas de garagem, o Parque das Oliveiras oferece uma integração de ambientes que se encaixa perfeitamente ao seu estilo de viver e morar, com projetos vazados de 04 suítes e opções de reversibilidade, que trazem versatilidade e funcionalidade a uma rotina diária intensa e que demanda , cada vez mais, espaços que promovam momentos únicos de conforto, tranquilidade e aconchego familiar.
+Venha ser feliz no Parque das Oliveiras: contemporâneo, como você.
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o showroom de acabamentos e métodos construtivos Emplavi, além das obras aceleradas .  
+As imagens apresentadas podem ser meramente ilustrativas.
+Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-parque-das-oliveiras-04-suites-noroeste-707539</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>R.6/131519</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>11896e11896</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Apartamento Águas Claras- Península</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Apartamento a venda com 4 quartos em Águas Claras, Pronto para morar!
+Com 39 mil m² de jardins e áreas de lazer, o Península dispõe de apartamentos de 4 quartos, amplos espaços internos, parque aquático, pista de cooper, quadras esportivas e paisagismo assinado pelo premiado Benedito Abbud.
+O empreendimento ainda conta com uma localização privilegiada e tráfego nas melhores vias de acesso à Águas Claras. Fica próximo à EPTG, supermercados, estações de metrô, shopping, faculdades e colégios renomados, tudo para facilitar e melhorar o seu dia a dia.
+Venha morar em um verdadeiro oásis e conquiste qualidade de vida!
+Apartamento 4 quartos 128m² com 2 vagas de garagem.
+Projeto de Arquitetura: Gomes Figueiredo Arquitetura
+Projeto paisagístico: Benedito Abbud Arquitetura Paisagística
+Decoração de interiores: Cybele Barbosa Arquitetos Associados.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-apartamento-aguas-claras-peninsula-887159</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>PENÍNSULA RESORT RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ÁGUAS CLARAS - SUL</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>887159</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Piso em Porcelanato 
+                                    Home Theater</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Apartamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Venice Park</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Um resort em Brasília
+Na melhor localização da SUPERQUADRA  PARK SUL
+ O Venice Park está localizado ao lado do Park Shopping, da Asa Sul, apenas 10 minutos para o aeroporto, próximo a estação do metrô, hipermercados, churrascarias.
+ Área de lazer completa com área verde, espelhos d'água, Mais de 1000m de área piscina, sauna, ofurô, hidro, adega, salão de festas, academia e lavanderia e muito mais ...
+Apartamentos de 1 quarto de 26 a 103 m²
+Pronto pra morar
+Alguns Diferenciais 
+* Piso porcelanato 60 x 60 cm Eliane
+* Roda pé porcelanato 10 cm
+* Bancada granito verde Ubatuba
+* Metais Docol
+* Duchas banho instalada
+* Louça Deca
+* Luminárias (instaladas)
+* Preparação para ar condicionado
+* Cooktop 2 bocas (indução elétrica)
+* Kit Banheiro
+* Vaga de garagem
+(  COMPRANDO ESSE MÊS DE MAIO GANHE 1 AR CONDICIONADO E O BOX DO BANHEIRO)
+Financiamento direto com a Construtora, sem análise de crédito e sem burocracia.
+Financiamento Bancário (Financia por qualquer banco).
+Use seu FGTS
+PLANO DE PAGAMENTO FLEXÍVEL Monte seu plano de pagamento.
+Unidades decoradas TIPO , LOFT e Coberturas Duplex no empreendimento.
+Não perca tempo agende sua visita agora mesmo e conheça nossos lindos decorado e conheça mais desse que já é  o melhor empreendimento do Park sul, pra você morar ou investir.
+*Fotos decorado/ilustrativas
+Valores e disponibilidade sujeitos a alterações em prévio aviso!
+Venice Park aonde o Estilo e a Liberdade se encontram !
+Agende agora mesmo sua visita !
+Mais Informações 
+Corretores
+Nayara Oliveira</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-venice-park-917592</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>381.714</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Nayara Oliveira</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - PARK SUL</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1 Quarto pronto pra morar</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    SPA
+                                    Varanda
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Algarve Residencial Noroeste</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Unidade 102:  vazado, com 125,19m² de área privativa total, sendo 117,65m² de área privativa principal  e 7,54m² de HOBBY ROOM / bicicletário privativo, com 3 suites e 2 vagas na garagem.
+O Algarve está localizado na SQNW 303 do Noroeste, uma quadra consolidada, rica em comércio para tornar a sua rotina mais prática com proximidade ao parque Burle Marx e a 5 minutos do centro de Brasília.
+Todas as unidades do Algarve contam com diferenciais de acabamento, segurança e qualidade que a Supera Engenharia têm .
+A área de lazer do Algarve foi feita para desfrutar o melhor da paisagem, na corbertura temos salão gourmet com churrasqueira, salão de jogos, coworking, piscina com sauna e spa. No pilotis temos academia, pet care e brinquedoteca. 
+Aproveite as condições de pré-lançamento que a Supera Engenharia proporcionou para você.
+VISITE UNIDADE DECORADA E UNIDADE MODELO.
+Para conhecer melhor os diferenciais do Algarve, agende uma visita ao nosso decorado. Ligue ou fale no whatsapp pelo</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-algarve-residencial-noroeste-917520</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Supera Engenharia</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Cartório do 2 ofício de registro de imóveis do Distrito Federal 
+Número do Memorial de Incorporação ALGARVE: R.10/131539</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                                                    Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Escritorio 
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Residencial Sintonia</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RESIDENCIAL SINTONIA
+Empreendimento muito bem localizado em Ceilândia Centro, em  frente a praça dos eucaliptos, próximo a bancos, feira permanente, comércios, escolas, supermercados e toda estrutura  de serviços.
+APTOS  DE 2 QUARTOS  COM  SUÍTE e VARANDA  de 54 á 59 m2 
+Excelente área de lazer com os seguintes Itens:
+-Piscina 
+- Brinquedoteca
+-Salão de festas
+-academia
+-churrasqueira
+ACABAMENTO DIFERENCIADO: COM  PISOS  DOS  APTOS SENDO ENTREGUES NO PISO VINÍLICO NAS  PARTES SECAS E PORCELANATO  NAS  PARTES MOLHADAS.
+ENTRADA FACILITADA, USE SEU FGTS NA ENTRADA.
+PROMOÇÃO POR TEMPO DETERMINADO DE ITBI E REGISTRO PAGOS PELA CONSTRUTORA.
+AVALIAÇÃO DOS APTOS FEITA PELA CAIXA ECONÔMICA FEDERAL MAIOR QUE O PREÇO DE VENDA.
+APROVAMOS SEU FINANCIAMENTO. FINANCIAMENTO ENQUADRA NO MINHA CASA MINHA VIDA.
+Não perca mais tempo, toda facilidade e tudo que você precisa em um só lugar, agende sua visita e aproveite
+Esta publicidade não garante a disponibilidade da unidade desejada e nem o preço proposto. Para garantir a sua unidade , você deve procurar o Corretor de Imóveis e concretizar seu negócio o quanto antes .Valores e disponibilidade sujeitos a alteração sem prévio aviso da Construtora .
+Mais informações
+André Dantas</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-sintonia-925033</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ASD imóveis</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>CEILÂNDIA - CEILANDIA NORTE</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Sintonia</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Piscina
+                                    Portão Eletrônico
+                                    Salão de Festas
+                                    Varanda
+                                    Piso em Porcelanato 
+                                    Vista Livre</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SQNW 306 BLOCO H - VIA TRIANON</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Apartamento para venda com 194 metros quadrados com 4 suítes em Setor Noroeste - Brasília - DF  (ÚLTIMAS  UNIDADES)
+4 Quartos de 194,74 a 215,35m² | 4 ou 5 vagas de garagem soltas.
+Localizado na SQNW 306, Bloco H do Noroeste.
+A sofisticação inspirada no Palácio Grand Trianon – famosa residência francesa do rei Luíz XIV, em Versalhes. O residencial Via Trianon representa uma escolha inteligente, em função dos diversos diferenciais do empreendimento.
+O Residencial preza pela segurança, conforto e praticidade. Todas as unidades com 4 suítes, hall /elevador privativos e vaga com um ponto para carro elétrico por unidade.
+A fachada é revestida com   granito e vidros verdes, esquadria robusta em alumínio e janelas de correr.
+Ambientes coletivos entregues totalmente equipados e decorados.
+Agende agora mesmo sua visita!
+Thais / Carol</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-sqnw-306-bloco-h--via-trianon-941480</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Carol Aragão</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>941480</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>SQNW</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Demartini - Seu Espaço Único e Cheio de Personalidade no Setor Noroeste!
+Descubra o Demartini, o melhor 2 quartos do Noroeste, um empreendimento que vai além do comum, projetado para trazer personalidade à sua vida. Com apartamentos de 2 quartos de alto padrão, incluindo uma suíte com closet, cozinha americana, sala ampla com varanda e o padrão construtivo exclusivo da Soltec, o Demartini é a escolha certa para quem busca qualidade e conforto.
+Plantas Versáteis:
+As plantas do Demartini variam de 76 a 180m², oferecendo opções que se adaptam perfeitamente às suas necessidades. Seja qual for o tamanho da sua vida, o Demartini tem a solução ideal.
+Localização Estratégica:
+Situado na SQNW 303, uma das melhores quadras do Setor Noroeste, o Demartini oferece proximidade a hipermercados, shoppings, faculdades, escolas e hospitais. Tudo pensado para otimizar a sua rotina diária.
+Diferenciais Exclusivos:
+O Demartini traz diferenciais que fazem toda a diferença. Totalmente residencial, oferece tranquilidade inigualável. A fachada revestida em granito, vidro fumê e esquadria anodizada proporcionam sofisticação. Com monitoramento por câmeras 24h, sensor de vazamento de gás nos apartamentos e Wi-Fi nas áreas de lazer, a segurança e comodidade estão garantidas.
+Lazer Completo:
+As áreas de lazer do Demartini foram pensadas para proporcionar a melhor experiência de moradia. Com Espaço Kids climatizado e monitorado via mobile, salão de festas, brinquedoteca, espaço gourmet, academia, piscina adulto e infantil, deck, churrasqueira, sauna e espaço pet, cada detalhe foi cuidadosamente planejado para você e sua família desfrutarem momentos únicos.
+Não espere mais, venha conhecer o Demartini e viva a vida com personalidade!
+Conheça o decorado na nossa Central de Vendas do Noroeste na CLNW 02/03, Lote J.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-demartini--2-quartos-891815</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Demartini</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Cobertura Ilha Bela Residence -03 suítes</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) às coberturas privativas e lineares de 3 quartos , sendo 3 suítes , do Ilha Bela Residence, localizado no Guará I : Experimente o Excepcional. Mais um empreendimento com  a marca da solidez , segurança e qualidade construtiva Emplavi , há 41 anos construindo histórias felizes em Brasília, com mais 31.000 imóveis entregues no prazo. 
+A simetria perfeita entre beleza arquitetônica e funcionalidade, no lugar ideal para os melhores momentos em família ou na companhia dos amigos, com lazer completo e diferenciado,  áreas comuns diversificadas e funcionais e espaços amplos revestidos de requinte e sofisticação, que proporcionam conforto e praticidade , o Ilha Bela residence apresenta uma proposta única de viver e morar em Brasília, com a qualidade de vida que você e sua família sempre sonharam , harmonizando a intensidade da uma grande cidade , com momentos únicos de convivência, relaxamento e muita diversão.
+O Ilha Bela Residence está localizado no Guará I, em frente à EPTG, a poucos minutos do Plano Piloto e com acesso rápido a toda uma gama de equipamentos públicos, parques,  shoppings, supermercados, feiras, escolas, farmácias e comércio em geral e às principais vias de acesso ao centro de Brasília,  além de duas estações de metrô e dois terminais de ônibus.
+Com metragens que variam entre 205,58m² e 216,08m² e com 03 vagas de garagem, as coberturas lineares do Ilha Bela residence, oferecem uma experiência inigualável de exclusividade , conforto e sofisticação, mesclando elementos nobres e contemporâneos , com modernidade, funcionalidade e uma vista privilegiada, que juntos, promovem uma atmosfera de bem-estar e pura inspiração.
+Um novo estilo de viver o excepcional espera por e você e sua família. 
+Fale com um corretor credenciado Emplavi  , agende uma visita no ponto de vendas e conheça as obras aceleradas. 
+As imagens apresentadas são meramente ilustrativas. Unidades sujeitas à disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-ilha-bela-residence-03-suites-468063</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>GUARÁ - GUARA I</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>R-7 M.14916</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>10886e10886c</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Cobertura Parque das Figueiras 3 quartos</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) às coberturas privativas duplex do Parque das Figueiras, 03 quartos , no Setor Noroeste :  Nobreza por excelência. Mais um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi, há 41 anos construindo histórias felizes em Brasília, com mais de 31.000 imóveis entregues no prazo. 
+ENTREGA EM 2024 !!! 
+A nobreza refletida em um conjunto arquitetônico exuberante e a modernidade expressa em soluções e inovações tecnológicas de última geração, agregadas ao seu alto padrão construtivo, imediatamente conquistam os olhares mais exigentes. São áreas comuns diferenciadas, ambientes amplos e sofisticados e uma completa estrutura de lazer que revelam o cuidado e o primor que a Emplavi agrega às suas obras , que já se tornaram marca registrada de seus empreendimentos no bairro. Atributos que fazem do Parque das Figueiras a escolha certa para quem busca uma experiência única de viver em Brasília, cercada das melhores razões para ser feliz e conquistar a qualidade de vida que sempre desejou. 
+Localizado na Quadra SQNW 103 do Setor Noroeste, ao lado da Asa Norte e próximo ao Eixo Monumental, o Parque das Figueiras é um convite diário à qualidade de vida, unindo a praticidade de um dia a dia agitado, próprio das grandes cidades, com a tranquilidade de um lugar perfeito para relaxar e usufruir de toda segurança e bem-estar que sua família precisa e merece.
+São coberturas privativas duplex de 03 quartos, com metragens que variam entre 205,12m² a 208,70m² e 03 vagas na garagem,  que privilegiam a exclusividade, o bom gosto e o aconchego de quem aprecia momentos únicos em família, cercados de conforto e sofisticação,  sem abrir mão da  praticidade de espaços inteligentes e funcionais, perfeitos para seu novo momento de vida. 
+Belo, essencial e único. Esse é o conceito que traduz a experiência de viver a nobreza em sua melhor forma. Parque das Figueiras : Nobreza por excelência. 
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o showroom de acabamentos e métodos construtivos Emplavi e  as obras aceleradas . 
+ENTREGA EM 2024!!! 
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-parque-das-figueiras-3-quartos-343282</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>R-10 / 131460</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>343282e10930c</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Contemporâneo - Seu Novo Lar no Ponto Mais Alto do Noroeste
+Descubra o privilégio de viver no Contemporâneo, uma jóia imobiliária localizada no ponto mais alto do Noroeste, entre o Parque Nacional e o Parque Burle Marx. Este empreendimento é o endereço perfeito para quem busca viver com conforto, estilo, sofisticação e modernidade.
+Características Únicas:
+O Contemporâneo oferece apartamentos de 3 e 4 quartos, com opções de 1 a 2 suítes, e plantas de 135 a 225m². O melhor de tudo? Está PRONTO PARA MORAR! As unidades são verdadeiramente vazadas, proporcionando iluminação e ventilação natural para todos os ambientes. O acabamento Premium, marca registrada da Soltec, destaca o alto padrão em cada detalhe.
+Coberturas Duplex com Vista Exclusiva:
+As coberturas duplex do Contemporâneo oferecem a exclusividade de uma vista única do céu de Brasília. Com 225m², elas apresentam um lazer privativo composto por terraço, churrasqueira, deck e um spa particular. São 4 quartos, duas suítes e duas semi-suítes, garantindo o máximo de conforto e requinte.
+Últimas unidades disponíveis
+Visite nossa Central de Vendas na CLNW 02/03, Lote J.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-contemporaneo--4-quartos-892186</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Contemporaneo</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oceania Residence</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sua Ilha Particular em Águas Claras, composta por apartamentos de 2 e 3 quartos com até 84m², 2 vagas de garagem, bicicletário privativo e área de lazer completa com jardins, 04 rooftops exclusivos, salões de festas, espaços gourmet, academias, parques infantis, entre outros.
+Próximo às melhores vias de acesso da cidade e com baixo fluxo de veículos, o empreendimento está localizado no ponto mais alto de Águas Claras, onde a temperatura é mais agradável
+A entrega está prevista para maio de 2025.
+Agende uma visita com um de nossos corretores e conheça os apartamentos decorados.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-oceania-residence-562108</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>636.348</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>562108</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Apartamento Águas Claras- Península</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Apartamento a venda com 3 quartos em Águas Claras, Pronto para morar!
+Com 39 mil m² de jardins e áreas de lazer, o Península dispõe de apartamentos de 3 quartos, amplos espaços internos, parque aquático, pista de cooper, quadras esportivas e paisagismo assinado pelo premiado Benedito Abbud.
+O empreendimento ainda conta com uma localização privilegiada e tráfego nas melhores vias de acesso à Águas Claras. Fica próximo à EPTG, supermercados, estações de metrô, shopping, faculdades e colégios renomados, tudo para facilitar e melhorar o seu dia a dia.
+Venha morar em um verdadeiro oásis e conquiste qualidade de vida!
+Apartamento 3 quartos 103m² com 2 vagas de garagem.
+Projeto de Arquitetura: Gomes Figueiredo Arquitetura
+Projeto paisagístico: Benedito Abbud Arquitetura Paisagística
+Decoração de interiores: Cybele Barbosa Arquitetos Associados.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-apartamento-aguas-claras-peninsula--886706</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>PENÍNSULA RESORT RESIDENCIAL</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>886706</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Quadra Esportiva 
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Varanda
+                                    Piso em Porcelanato 
+                                    Home Theater</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Apartamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Seu Lar dos Sonhos Agora é Realidade no Vivacité 
+Descubra a sofisticação e o conforto que o Vivacité oferece, uma obra-prima pronta para acolher você e sua família no coração do Noroeste. Apartamentos a partir de 103m² e coberturas duplex de 201 a 212m² de alto padrão, com 3 quartos, esperam por você, prontos para morar e proporcionar uma vida repleta de experiências inesquecíveis.
+Localização Privilegiada:
+Situado na SQNW 311, a primeira quadra do Noroeste, o Vivacité está estrategicamente posicionado em uma quadra consolidada, repleta de comércios e utilidades que facilitarão sua rotina diária, tornando cada momento mais prático e conveniente.
+Diferenciais Incomparáveis:
+Cada unidade do Vivacité reflete o compromisso da Soltec com a excelência em acabamentos e segurança. Afinal, sua tranquilidade é nossa prioridade.
+Lazer de Alto Padrão:
+Desfrute de um lazer completo e refinado, com espaços dedicados a todas as idades. O Vivacité oferece um espaço criança, salões de festas, churrasqueira para momentos descontraídos, piscina aquecida, sauna, academia equipada e um deck para relaxar. Tudo isso pensado para que sua qualidade de vida seja a melhor possível.
+Condições Especiais para um Investimento Inteligente:
+A Soltec apresenta condições especiais que tornarão seu sonho realidade. Essa é a oportunidade perfeita para fazer um investimento sólido em um imóvel que une luxo, conforto e localização estratégica.
+Visite nossa Central de Vendas na CLNW 02/03, Lote J.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-vivacite--2-e-3-quartos-892221</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Soltec Engenharia</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Vivacite</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Cozinha com Armários 
+                                    Despensa 
+                                    Escritorio 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Cobertura Jardins Azaleias 04 Suítes NW</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bem vindo às Coberturas Privativas duplex 4 suítes  do Jardins Azaleias , no Setor Noroeste : A felicidade além do horizonte! Um empreendimento com a solidez, a segurança e a qualidade construtiva Emplavi, há 41 anos construindo histórias felizes , com mais de 31.000 imóveis entregues no prazo. 
+O Jardins Azaleias está localizado na quadra SQNW 302 do Setor Noroeste, próximo ao Parque Burle Marx , à Asa Norte e ao Eixo Monumental , com vista livre e permanente para o horizonte de Brasília. Do projeto arquitetônico pautado por excepcional beleza, à inovação, conforto , requinte e sofisticação em cada detalhe, refletidos nos ambientes que compõem suas áreas comuns e lazer diferenciado , tudo vai se encaixando e moldando uma experiência única de viver e morar em um lugar feito para elevar seu conceito de felicidade a um patamar inimaginável. 
+São coberturas privativas duplex , com plantas reversíveis de 4 suítes e 4 vagas de garagem e metragens que vão de 290,12m² a 324,70m² perfeitamente distribuídas em espaços generosos, integrados e funcionais , prontos à oferecer praticidade para as rotinas do dia a dia , de toda a família,  harmonizada com a leveza e o conforto dos momentos de celebração, relaxamento e convívio familiar e social, apreciando um belo pôr do Sol. 
+AGENDE uma visita na Central de Vendas e decorados Emplavi Noroeste - SQNW 102 , conheça o showroom de acabamentos e métodos construtivos Emplavi e  as obras aceleradas  com unidade modelo.
+ENTREGA EM 2023 !!! ÚLTIMAS UNIDADES!!!  
+As imagens apresentadas podem ser meramente ilustrativas. Unidades sujeitas à disponibilidade.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura-jardins-azaleias-04-suites-nw-313803</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>313803e4530</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Para quem busca a facilidade da vida urbana sem abrir mão do contato com a natureza. O Residencial Jane Godoy traz um dos maiores apartamentos prontos para morar da Asa Norte, com unidades vazadas de 4 quartos a partir de 160m². É o último bloco construído na SQN 215.
+Próximo ao Parque Olhos D’Água, possui acabamento de luxo em cada detalhe. 
+Agende uma visita com um de nossos corretores e conheça os detalhes deste magnífico empreendimento.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-jane-godoy-389299</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - ASA NORTE</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>389299</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Localizado na Rua 12 Sul, entre as avenidas Araucária e Boulevard, o Residencial Vilarindo Lima conta com apartamentos prontos para morar com 1 e 2 quartos de 57m² a 71 m² e até 2 vagas de garagem, além de lojas de 66m² a 155m² no térreo, que oferecem praticidade aos moradores. 
+O empreendimento contempla uma excelente área de lazer organizada com piscinas, salão de festas, brinquedoteca, fitness, espaço gourmet, churrasqueiras e forno de pizza.
+Agende uma visita com um de nossos corretores e conheça os detalhes deste magnífico empreendimento.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-vilarindo-lima-390775</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>607.4059999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>390775</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Residencial Ilha de Páscoa</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Quadra 201 - Samambaia - Brasilia - DF
+Residencial Ilha de Pascoa.
+2 quartos com 49,60m² - 4º andar + 1 vaga
+a partir de R$ 288.800,00.
+3 quartos com 68m² - 2º andar + 1 vaga
+a partir de R$ 390.000,00
+cobertura duplex 3 quartos com 153m² - 13º andar + 2 vagas de carro + 1 de moto.
+a partir de R$ 675.000,00
+Entrada facilitada com a construtora em até 36 mensais fixas, sem correção.
+ITBI + registro por conta da construtora (para as unidades de 2 quartos).
+Pronto pra morar, ótimo acabamento.
+LAZER;
+piscina
+salão de festas
+churrasqueira
+bicicletario
+Localizado na quadra QN 203, entre o Tatico e Bombeiros ao lado do Burger King. Próximo ao metrô, escolas, centro urbano de Samambaia.
+Mais informações e visitas
+9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-ilha-de-pascoa-964565</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Bruno Novais</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SAMAMBAIA - SAMAMBAIA NORTE</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Memorial de Incorporação registrado no Cartório de
+3º oficio de Registro de Imóveis do DF, registrado sob o R07 junto á Matricula de numero 254274.</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>ilhadepascoa2,3,cob</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Gás Canalizado 
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lazer no Pilotis
+                                    Piscina
+                                    Portão Eletrônico
+                                    Salão de Festas
+                                    Vista Livre
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Residencial Topázio 03 Suítes - SQSW 500</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Residencial Topázio, o melhor projeto 03 Suítes da SQSW QUADRA 500 - Setor Sudoeste: Preciosidade em cada detalhe. Mais um empreendimento com a solidez, segurança e qualidade construtiva Emplavi, incorporadora líder do segmento imobiliário de alto padrão no DF , com mais de 31.000 imóveis entregues em 42 anos de história na Capital Federal.  
+ENTREGA EM 2024!!
+Inspirado na exuberância de um dos minerais mais raros da natureza, de profunda beleza, brilho marcante e valor inestimável, nasce o Residencial Topázio, o mais novo empreendimento com a marca do alto padrão Emplavi, localizado em um dos endereços mais nobres e valorizados de Brasília, a Quadra 500, no Setor Sudoeste, ao lado do Parque das Sucupiras e do Eixo Monumental.
+Com localização privilegiada, design arrojado que combina arquitetura contemporânea, ambientes sofisticados , soluções tecnológicas inovadoras e lazer diferenciado, o Residencial Topázio é pura inspiração do início ao fim, propondo um estilo de vida mais harmonioso e equilibrado, entre a rotina intensa de uma grande cidade e a tranquilidade de se viver em um lugar cercado de verde e da segurança que você e sua família procuram, com muito charme e conforto , perfeitamente alinhados com o que há de mais belo, moderno e funcional em um projeto residencial completo, definitivo e de alto padrão,  cuidadosamente lapidado em acabamentos de primeiríssima linha, detalhes clássicos, estilo moderno, muito requinte e elegância , feito para  encantar e elevar a sua experiência de viver e morar em Brasília , à um novo patamar de felicidade e qualidade de vida.
+São apartamentos de 03 Suítes , com até 03 vagas na garagem e metragens  que variam de 139,38m² a  156,70m² , harmoniosamente distribuídas em projetos inteligentes , reversíveis e funcionais , na medida certa dos seus maiores sonhos , onde a sua qualidade de vida é valorizada em cada detalhe, conectando você e sua família à um novo estilo de vida repleta de conforto e momentos únicos de felicidade  e aconchego familiar.   
+Belo. Precioso. Surpreendente. Seja bem-vindo ao seu novo endereço em Brasília. Seja bem-vindo ao Residencial Topázio: preciosidade em cada detalhe. 
+Imagens meramente ilustrativas. Unidades sujeitas a disponibilidade.
+Agende uma visita com um corretor credenciado Emplavi e conheça as obras aceleradas com unidade modelo. ENTREGA EM 2024!!!</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-topazio-03-suites--sqsw-500-320518</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - SUDOESTE</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>R-5/159969</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>320518e10786</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Área de Serviço Coberta 
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>SQSW</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A melhor opção para quem quer morar bem ou investir no Guará II.
+Apartamentos prontos para morar de 3 quartos de 114 a 195m², com varanda gourmet, além de coberturas lineares com lazer privativo de até 233m² e até 4 vagas de garagem . Localizado na QI 33 do Guará, fica próximo a via EPGU e a apenas 10 minutos da Asa Sul.
+Dispõe de área de lazer completa com piscina infantil e adulto, salão de festas, praças, mini quadra poliesportiva e muito mais.
+Agende uma visita com um de nossos corretores e conheça os detalhes deste magnífico empreendimento.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-wildemir-demartini--389808</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>GUARÁ - GUARA II</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>389808</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pronto para morar no melhor bairro de Brasília, o Noroeste.
+Próximo aos parques Burle Marx e Nacional, comércio variado e fácil acesso ao Plano Piloto, o empreendimento foi projetado com tecnologias e materiais que respeitam o meio ambiente e proporcionam níveis ideais de conforto aos moradores. Conta com áreas de lazer na cobertura e pilotis. Salão de festas, piscina, terraços descobertos, espaço fitness, churrasqueira e muito mais.
+O empreendimento possui apartamentos e coberturas duplex de 2 ou 3 quartos com 85m² a 247m²  e até três vagas de garagem.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-residencial-gen-burmann-389909</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>PaulOOctavio</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>389909</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ESSENCE PARK  SUL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>EU AMO PARK SUL, 2 LANÇAMENTOS COM QUALIDADE FAENGE NO PARK SUL.
+2 QUARTOS, 100% RESIDENCIAL, USE FGTS/FINANCIAMENTO
+ENTREGA EM DEZEMBRO DE 2023
+ESSENCE PARK SUL – 2 QUARTOS - 100% RESIDENCIAL
+2 QUARTOS COM 61,60m²
+2 QUARTOS COM TERRAÇO PRIVATIVO – 101,36m²
+COMBINE A MODERNIDADE DE UMA ROTINA COSMOPOLITA COM A QUALIDADE DE VIDA DE UM CONDOMÍNIO FECHADO
+Invista em um condomínio fechado no Park Sul. Invista na Qualidade FAENGE.
+Entrega em dezembro de 2023 
+Agende uma visita para conhecer o melhor da arquitetura inteligente na central de vendas  FAENGE PARK SUL  – (em frente a padaria Pão Dourado ).
+Telefone Fixo:</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-essence-park--sul-458651</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Faenge</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - PARK SUL</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>MI 7.722 - R-6 e MI 106.130 - R-3</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>458651</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Guarita
+                                    Piscina
+                                    Sala de Ginástica
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Cobertura - Jardins dos Bougainvilles</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Jardins dos Bougainvilles: Um lugar sem igual, para sua nova história começar.
+PRONTO PARA MORAR!! ÚLTIMAS UNIDADES!!! 
+SQNW 302: Localização privilegiada ao lado da Asa Norte e a poucos minutos do Eixo Monumental.
+2 Suítes versátil e cheio de personalidade, inovação em diferenciais construtivos. 
+ Agende uma visita com um corretor credenciado Emplavi e aproveite condições especiais de negociação. 
+As imagens apresentadas podem ser meramente ilustrativas.
+Unidades sujeitas a disponibilidade.
+*Valor anunciado (R$2.478.320,57) referente à unidade 614 (COBERTURA MEIO FRENTE SUL / JARDIM / RUA).
+Piso em porcelanato;
+Fechadura eletrônica na porta da sala;
+Tomadas USB;
+Infraestrutura para automação residencial wireless;
+Ralo linear nos banheiros;
+2 Vagas coletivas com carregador elétrico.
+Áreas comuns: Salão de Festas; Salão de Jogos; Churrasqueiras; Fitness Center; Sauna; Piscinas; Playground; Espaço Gourmet Rooftop; Garagem.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-cobertura--jardins-dos-bougainvilles--107909</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Cobertura</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>R.6/131521</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>107909e2404</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jardins dos Bougainvilles 02 suítes NW</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Seja bem-vindo(a) ao Jardins dos Bougainvilles 02 Suítes , localizado na SQNW 302 , Setor Noroeste : Um lugar sem igual, para sua nova história começar. Um empreendimento com a marca da solidez, segurança e qualidade construtiva Emplavi, há 41 anos construindo histórias felizes, com mais de 31.000 imóveis entregues no prazo. 
+PRONTO PARA MORAR ! ÚLTIMAS UNIDADES !! 
+Contemporâneo, dinâmico e funcional. O Jardins dos Bougainvilles chega para fazer parte do seu novo momento de vida, com toda a exclusividade de um empreendimento , com localização privilegiada e cheio de personalidade, seja por sua beleza arquitetônica e inovação em diferenciais construtivos ou por seu alto padrão em acabamentos e a mais diferenciada área de lazer encontrada entre os empreendimentos do Noroeste. Além disso, sua localização privilegiada, aliada à segurança, sustentabilidade e economia, irão trazer mais valor e exclusividade ao seu novo lugar, com experiências inesquecíveis, que são perfeitas para você.
+São apartamentos com 02 suítes versáteis e até 2 vagas de garagem, com até 4 padrões de metragens que vão de 68,82m² a 77,01m² , distribuídos em espaços que privilegiam a integração e a funcionalidade em cada detalhe, com inúmeras possibilidades para você e sua família criarem o lugar ideal para a felicidade acontecer. Venha ser feliz no Jardins dos Bougainvilles : O lugar ideal para sua nova história começar. 
+Agende uma visita com um corretor credenciado Emplavi , conheça as últimas unidades disponíveis , aproveite condições especiais de negociação e mude hoje mesmo para o seu novo endereço de alto padrão no Setor Noroeste. 
+Unidades sujeitas a disponibilidade.
+Piso em porcelanato;
+Fechadura eletrônica na porta da sala;
+Tomadas USB;
+Infraestrutura para automação residencial wireless;
+Ralo linear nos banheiros;
+2 Vagas coletivas com carregador elétrico.
+Áreas comuns: Salão de Festas; Salão de Jogos; Churrasqueiras; Fitness Center; Sauna; Piscinas; Playground; Espaço Gourmet Rooftop; Garagem.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-jardins-dos-bougainvilles-02-suites-nw-108029</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Emplavi</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>BRASÍLIA - NOROESTE</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>R.6/131521</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>108029e2404</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Aquecimento Solar
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Gerador de Energia
+                                    Guarita
+                                    Interfone
+                                    Jardim
+                                    Lavabo
+                                    Lazer no Pilotis
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Sala de Jogos
+                                    Sala de Ginástica
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Sauna
+                                    SPA
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R$ 310.990,00
+Área Útil: 54,58
+Bairro: Setor de Industria, QI 3
+Quartos: 2
+Valor R$/m²: 5.423,05
+Cidade: Gama
+Suíte: 0
+DESCRIÇÃO
+        A MRV é uma incorporadora que atua no mercado imobiliário, a mais de 40 anos, apresenta imóveis construídos em concreto, garantindo assim um conforto superior em sensação térmica e acústico no interior do apartamento. Com mais de 500 mil chaves entregues no Brasil, sendo mais de 12 mil entregue em Brasília, tornando assim a melhor opção investimento em imóvel. A MRV por ser a maior incorporadora da América Latina, com presença no Brasil em 22 estados e em mais de 160 cidades brasileira, é um porto seguro.
+Apartamentos 53,26 m² à venda no Gama, com 2 quartos com suíte (opcional), com varanda e 1 vaga de garagem.
+Apartamento   com 53,26 m².
+•	02 quartos;
+•	Banheiro social;
+•	Cozinha/área de serviço;
+•	Sala de estar/jantar com varanda.
+Apartamento   com 54,58 m².
+•	02 quartos com suíte;
+•	Banheiro social;
+•	Cozinha/área de serviço;
+•	Sala de estar/jantar com varanda.
+Pavimento Tipo (1º ao 12º pavimento):
+•	Duas torres, com 8 apartamentos por andar, totalizando 208 apartamentos.
+•	02 elevadores em cada torre.
+•	Torre garagem com 3 pavimentos.
+•	Área de lazer sobre a torre da garagem.
+Localização especial, QI 03, entre o Prédio Idelle e a Comando Auto Peças. 
+Área de lazer decorado e equipada sem custo adicional.
+?	Salão de festas;
+?	Área com churrasqueira;
+?	Piscina adulto;
+?	Piscina infantil;
+?	Bicicletário;
+Diferencias
+?	Paredes em concreto;
+?	Preparação para ar-condicionado nos quartos;
+?	Portaria com monitoramento 24 horas
+Previsão para emissão de carta de Habite-se para 27/02/2026, mas a MRV está entregando os empreendimentos com até 6 meses de antecedência.
+Financiamento de até 90% junto a Caixa Econômica Federal, como opção de Agente Financeiro. Use seu FGTS para a entrada.
+Agende uma visita e conheça todas as opções disponíveis!
+Enecy Souza – CRECI 30.495 DF</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.dfimoveis.com.br/imovel/lancamento-giardini-di-fiori-951925</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>310.99</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Enecy Souza</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Imóvel Novo de  Apartamento Padrão</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>22/05/2024</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>951925</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Aceita Pets
+                                    Área de Lazer
+                                    Área de Serviço
+                                    Gás Canalizado 
+                                    Guarita
+                                    Jardim
+                                    Lavabo
+                                    Piscina
+                                    PlayGround
+                                    Portão Eletrônico
+                                    Salão de Festas
+                                    Salão de Jogos
+                                    Salão Gourmet 
+                                    Varanda
+                                    Projeto de Iluminação
+                                    Piso em Porcelanato 
+                                                                    Cozinha Espaçosa
+                                                                    Pintura Nova</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>OUTRO</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
